--- a/use_tot_sector.xlsx
+++ b/use_tot_sector.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\CSEDS\Internet\Data\Consum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c987f5592cee8402/Documents/INST490/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{363F4847-A28A-48DF-91EE-F9C8F5D8D194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020" tabRatio="657"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="657" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="7" r:id="rId1"/>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="89">
   <si>
     <t>State</t>
   </si>
@@ -322,11 +323,14 @@
   <si>
     <t>US</t>
   </si>
+  <si>
+    <t>Average retail price (cents/kWh)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -434,7 +438,7 @@
     </xf>
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
@@ -449,6 +453,8 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -1340,16 +1346,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.8984375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="34.875" style="5" customWidth="1"/>
     <col min="2" max="2" width="43.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.09765625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="14.125" style="5" customWidth="1"/>
     <col min="4" max="4" width="9" style="5"/>
     <col min="5" max="5" width="10" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="5"/>
@@ -1365,12 +1373,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>33</v>
       </c>
@@ -1397,7 +1405,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
@@ -1414,7 +1422,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
@@ -1431,7 +1439,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
@@ -1448,7 +1456,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>6</v>
       </c>
@@ -1465,7 +1473,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
@@ -1482,39 +1490,39 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
     </row>
-    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A17" r:id="rId1" display="https://www.eia.gov/state/seds/"/>
-    <hyperlink ref="A19" r:id="rId2" display="SEDS Codes and Descriptions"/>
-    <hyperlink ref="A18" r:id="rId3"/>
-    <hyperlink ref="A10" location="'Residential Sector'!A1" display="Residential Sector"/>
-    <hyperlink ref="A11" location="'Commercial Sector'!A1" display="Commercial Sector"/>
-    <hyperlink ref="A12" location="'Industrial Sector'!A1" display="Industrial Sector"/>
-    <hyperlink ref="A13" location="'Transportation Sector'!A1" display="Transportation Sector"/>
-    <hyperlink ref="A14" location="'Total Consumption'!A1" display="Total Consumption"/>
+    <hyperlink ref="A17" r:id="rId1" display="https://www.eia.gov/state/seds/" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A19" r:id="rId2" display="SEDS Codes and Descriptions" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A18" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A10" location="'Residential Sector'!A1" display="Residential Sector" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A11" location="'Commercial Sector'!A1" display="Commercial Sector" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A12" location="'Industrial Sector'!A1" display="Industrial Sector" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A13" location="'Transportation Sector'!A1" display="Transportation Sector" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A14" location="'Total Consumption'!A1" display="Total Consumption" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -1522,32 +1530,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:CW55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="BA4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="BO26" sqref="BO26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.09765625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="10.09765625" style="10" customWidth="1"/>
-    <col min="3" max="6" width="10.09765625" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="61" width="11.09765625" style="10" bestFit="1" customWidth="1"/>
-    <col min="62" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="6.125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="10.125" style="10" customWidth="1"/>
+    <col min="3" max="6" width="10.125" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="61" width="11.125" style="10" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="27.375" style="14" bestFit="1" customWidth="1"/>
+    <col min="63" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:101" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>24</v>
       </c>
+      <c r="BJ1" s="14"/>
     </row>
     <row r="2" spans="1:101" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
+      <c r="BJ2" s="14"/>
     </row>
     <row r="3" spans="1:101" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -1733,6 +1744,9 @@
       <c r="BI3" s="8">
         <v>2019</v>
       </c>
+      <c r="BJ3" s="14" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="4" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -1918,7 +1932,9 @@
       <c r="BI4" s="13">
         <v>48580</v>
       </c>
-      <c r="BJ4" s="11"/>
+      <c r="BJ4" s="15">
+        <v>19.82</v>
+      </c>
       <c r="BK4" s="11"/>
       <c r="BL4" s="11"/>
       <c r="BM4" s="11"/>
@@ -2143,7 +2159,9 @@
       <c r="BI5" s="13">
         <v>347873</v>
       </c>
-      <c r="BJ5" s="11"/>
+      <c r="BJ5" s="15">
+        <v>9.84</v>
+      </c>
       <c r="BK5" s="11"/>
       <c r="BL5" s="11"/>
       <c r="BM5" s="11"/>
@@ -2368,7 +2386,9 @@
       <c r="BI6" s="13">
         <v>226877</v>
       </c>
-      <c r="BJ6" s="11"/>
+      <c r="BJ6" s="14">
+        <v>8.32</v>
+      </c>
       <c r="BK6" s="11"/>
       <c r="BL6" s="11"/>
       <c r="BM6" s="11"/>
@@ -2593,7 +2613,9 @@
       <c r="BI7" s="13">
         <v>412787</v>
       </c>
-      <c r="BJ7" s="11"/>
+      <c r="BJ7" s="15">
+        <v>10.44</v>
+      </c>
       <c r="BK7" s="11"/>
       <c r="BL7" s="11"/>
       <c r="BM7" s="11"/>
@@ -2818,7 +2840,9 @@
       <c r="BI8" s="13">
         <v>1455702</v>
       </c>
-      <c r="BJ8" s="11"/>
+      <c r="BJ8" s="14">
+        <v>18</v>
+      </c>
       <c r="BK8" s="11"/>
       <c r="BL8" s="11"/>
       <c r="BM8" s="11"/>
@@ -3043,7 +3067,9 @@
       <c r="BI9" s="13">
         <v>378983</v>
       </c>
-      <c r="BJ9" s="11"/>
+      <c r="BJ9">
+        <v>10.27</v>
+      </c>
       <c r="BK9" s="11"/>
       <c r="BL9" s="11"/>
       <c r="BM9" s="11"/>
@@ -3268,7 +3294,9 @@
       <c r="BI10" s="13">
         <v>239810</v>
       </c>
-      <c r="BJ10" s="11"/>
+      <c r="BJ10">
+        <v>19.13</v>
+      </c>
       <c r="BK10" s="11"/>
       <c r="BL10" s="11"/>
       <c r="BM10" s="11"/>
@@ -3493,7 +3521,9 @@
       <c r="BI11" s="13">
         <v>39337</v>
       </c>
-      <c r="BJ11" s="11"/>
+      <c r="BJ11">
+        <v>11.9</v>
+      </c>
       <c r="BK11" s="11"/>
       <c r="BL11" s="11"/>
       <c r="BM11" s="11"/>
@@ -3718,7 +3748,9 @@
       <c r="BI12" s="13">
         <v>65584</v>
       </c>
-      <c r="BJ12" s="11"/>
+      <c r="BJ12">
+        <v>10.24</v>
+      </c>
       <c r="BK12" s="11"/>
       <c r="BL12" s="11"/>
       <c r="BM12" s="11"/>
@@ -3943,7 +3975,9 @@
       <c r="BI13" s="13">
         <v>1180439</v>
       </c>
-      <c r="BJ13" s="11"/>
+      <c r="BJ13">
+        <v>10.06</v>
+      </c>
       <c r="BK13" s="11"/>
       <c r="BL13" s="11"/>
       <c r="BM13" s="11"/>
@@ -4168,7 +4202,9 @@
       <c r="BI14" s="13">
         <v>715836</v>
       </c>
-      <c r="BJ14" s="11"/>
+      <c r="BJ14">
+        <v>9.93</v>
+      </c>
       <c r="BK14" s="11"/>
       <c r="BL14" s="11"/>
       <c r="BM14" s="11"/>
@@ -4393,7 +4429,9 @@
       <c r="BI15" s="13">
         <v>34545</v>
       </c>
-      <c r="BJ15" s="11"/>
+      <c r="BJ15">
+        <v>27.55</v>
+      </c>
       <c r="BK15" s="11"/>
       <c r="BL15" s="11"/>
       <c r="BM15" s="11"/>
@@ -4618,7 +4656,9 @@
       <c r="BI16" s="13">
         <v>248336</v>
       </c>
-      <c r="BJ16" s="11"/>
+      <c r="BJ16">
+        <v>8.9700000000000006</v>
+      </c>
       <c r="BK16" s="11"/>
       <c r="BL16" s="11"/>
       <c r="BM16" s="11"/>
@@ -4843,7 +4883,9 @@
       <c r="BI17" s="13">
         <v>136900</v>
       </c>
-      <c r="BJ17" s="11"/>
+      <c r="BJ17">
+        <v>7.99</v>
+      </c>
       <c r="BK17" s="11"/>
       <c r="BL17" s="11"/>
       <c r="BM17" s="11"/>
@@ -5068,7 +5110,9 @@
       <c r="BI18" s="13">
         <v>970625</v>
       </c>
-      <c r="BJ18" s="11"/>
+      <c r="BJ18">
+        <v>9.75</v>
+      </c>
       <c r="BK18" s="11"/>
       <c r="BL18" s="11"/>
       <c r="BM18" s="11"/>
@@ -5293,7 +5337,9 @@
       <c r="BI19" s="13">
         <v>536499</v>
       </c>
-      <c r="BJ19" s="11"/>
+      <c r="BJ19">
+        <v>9.92</v>
+      </c>
       <c r="BK19" s="11"/>
       <c r="BL19" s="11"/>
       <c r="BM19" s="11"/>
@@ -5518,7 +5564,9 @@
       <c r="BI20" s="13">
         <v>228838</v>
       </c>
-      <c r="BJ20" s="11"/>
+      <c r="BJ20">
+        <v>10.38</v>
+      </c>
       <c r="BK20" s="11"/>
       <c r="BL20" s="11"/>
       <c r="BM20" s="11"/>
@@ -5743,7 +5791,9 @@
       <c r="BI21" s="13">
         <v>352177</v>
       </c>
-      <c r="BJ21" s="11"/>
+      <c r="BJ21">
+        <v>8.58</v>
+      </c>
       <c r="BK21" s="11"/>
       <c r="BL21" s="11"/>
       <c r="BM21" s="11"/>
@@ -5968,7 +6018,9 @@
       <c r="BI22" s="13">
         <v>318333</v>
       </c>
-      <c r="BJ22" s="11"/>
+      <c r="BJ22">
+        <v>7.51</v>
+      </c>
       <c r="BK22" s="11"/>
       <c r="BL22" s="11"/>
       <c r="BM22" s="11"/>
@@ -6193,7 +6245,9 @@
       <c r="BI23" s="13">
         <v>432949</v>
       </c>
-      <c r="BJ23" s="11"/>
+      <c r="BJ23">
+        <v>18.190000000000001</v>
+      </c>
       <c r="BK23" s="11"/>
       <c r="BL23" s="11"/>
       <c r="BM23" s="11"/>
@@ -6418,7 +6472,9 @@
       <c r="BI24" s="13">
         <v>393731</v>
       </c>
-      <c r="BJ24" s="11"/>
+      <c r="BJ24">
+        <v>11.15</v>
+      </c>
       <c r="BK24" s="11"/>
       <c r="BL24" s="11"/>
       <c r="BM24" s="11"/>
@@ -6643,7 +6699,9 @@
       <c r="BI25" s="13">
         <v>106253</v>
       </c>
-      <c r="BJ25" s="11"/>
+      <c r="BJ25">
+        <v>13.54</v>
+      </c>
       <c r="BK25" s="11"/>
       <c r="BL25" s="11"/>
       <c r="BM25" s="11"/>
@@ -6868,7 +6926,9 @@
       <c r="BI26" s="13">
         <v>783997</v>
       </c>
-      <c r="BJ26" s="11"/>
+      <c r="BJ26">
+        <v>12.21</v>
+      </c>
       <c r="BK26" s="11"/>
       <c r="BL26" s="11"/>
       <c r="BM26" s="11"/>
@@ -7093,7 +7153,9 @@
       <c r="BI27" s="13">
         <v>418227</v>
       </c>
-      <c r="BJ27" s="11"/>
+      <c r="BJ27">
+        <v>10.57</v>
+      </c>
       <c r="BK27" s="11"/>
       <c r="BL27" s="11"/>
       <c r="BM27" s="11"/>
@@ -7318,7 +7380,9 @@
       <c r="BI28" s="13">
         <v>530235</v>
       </c>
-      <c r="BJ28" s="11"/>
+      <c r="BJ28">
+        <v>9.64</v>
+      </c>
       <c r="BK28" s="11"/>
       <c r="BL28" s="11"/>
       <c r="BM28" s="11"/>
@@ -7543,7 +7607,9 @@
       <c r="BI29" s="13">
         <v>195186</v>
       </c>
-      <c r="BJ29" s="11"/>
+      <c r="BJ29">
+        <v>9.1300000000000008</v>
+      </c>
       <c r="BK29" s="11"/>
       <c r="BL29" s="11"/>
       <c r="BM29" s="11"/>
@@ -7768,7 +7834,9 @@
       <c r="BI30" s="13">
         <v>105697</v>
       </c>
-      <c r="BJ30" s="11"/>
+      <c r="BJ30">
+        <v>9.1300000000000008</v>
+      </c>
       <c r="BK30" s="11"/>
       <c r="BL30" s="11"/>
       <c r="BM30" s="11"/>
@@ -7993,7 +8061,9 @@
       <c r="BI31" s="13">
         <v>696311</v>
       </c>
-      <c r="BJ31" s="11"/>
+      <c r="BJ31">
+        <v>9.43</v>
+      </c>
       <c r="BK31" s="11"/>
       <c r="BL31" s="11"/>
       <c r="BM31" s="11"/>
@@ -8218,7 +8288,9 @@
       <c r="BI32" s="13">
         <v>78903</v>
       </c>
-      <c r="BJ32" s="11"/>
+      <c r="BJ32">
+        <v>8.5299999999999994</v>
+      </c>
       <c r="BK32" s="11"/>
       <c r="BL32" s="11"/>
       <c r="BM32" s="11"/>
@@ -8443,7 +8515,9 @@
       <c r="BI33" s="13">
         <v>169241</v>
       </c>
-      <c r="BJ33" s="11"/>
+      <c r="BJ33">
+        <v>8.9700000000000006</v>
+      </c>
       <c r="BK33" s="11"/>
       <c r="BL33" s="11"/>
       <c r="BM33" s="11"/>
@@ -8668,7 +8742,9 @@
       <c r="BI34" s="13">
         <v>105115</v>
       </c>
-      <c r="BJ34" s="11"/>
+      <c r="BJ34">
+        <v>16.63</v>
+      </c>
       <c r="BK34" s="11"/>
       <c r="BL34" s="11"/>
       <c r="BM34" s="11"/>
@@ -8893,7 +8969,9 @@
       <c r="BI35" s="13">
         <v>563131</v>
       </c>
-      <c r="BJ35" s="11"/>
+      <c r="BJ35">
+        <v>13.63</v>
+      </c>
       <c r="BK35" s="11"/>
       <c r="BL35" s="11"/>
       <c r="BM35" s="11"/>
@@ -9118,7 +9196,9 @@
       <c r="BI36" s="13">
         <v>132449</v>
       </c>
-      <c r="BJ36" s="11"/>
+      <c r="BJ36">
+        <v>9.33</v>
+      </c>
       <c r="BK36" s="11"/>
       <c r="BL36" s="11"/>
       <c r="BM36" s="11"/>
@@ -9343,7 +9423,9 @@
       <c r="BI37" s="13">
         <v>173543</v>
       </c>
-      <c r="BJ37" s="11"/>
+      <c r="BJ37">
+        <v>8.33</v>
+      </c>
       <c r="BK37" s="11"/>
       <c r="BL37" s="11"/>
       <c r="BM37" s="11"/>
@@ -9568,7 +9650,9 @@
       <c r="BI38" s="13">
         <v>1138582</v>
       </c>
-      <c r="BJ38" s="11"/>
+      <c r="BJ38">
+        <v>14.87</v>
+      </c>
       <c r="BK38" s="11"/>
       <c r="BL38" s="11"/>
       <c r="BM38" s="11"/>
@@ -9793,7 +9877,9 @@
       <c r="BI39" s="13">
         <v>875824</v>
       </c>
-      <c r="BJ39" s="11"/>
+      <c r="BJ39">
+        <v>9.44</v>
+      </c>
       <c r="BK39" s="11"/>
       <c r="BL39" s="11"/>
       <c r="BM39" s="11"/>
@@ -10018,7 +10104,9 @@
       <c r="BI40" s="13">
         <v>298943</v>
       </c>
-      <c r="BJ40" s="11"/>
+      <c r="BJ40">
+        <v>7.63</v>
+      </c>
       <c r="BK40" s="11"/>
       <c r="BL40" s="11"/>
       <c r="BM40" s="11"/>
@@ -10243,7 +10331,9 @@
       <c r="BI41" s="13">
         <v>255441</v>
       </c>
-      <c r="BJ41" s="11"/>
+      <c r="BJ41">
+        <v>8.82</v>
+      </c>
       <c r="BK41" s="11"/>
       <c r="BL41" s="11"/>
       <c r="BM41" s="11"/>
@@ -10468,7 +10558,9 @@
       <c r="BI42" s="13">
         <v>891688</v>
       </c>
-      <c r="BJ42" s="11"/>
+      <c r="BJ42">
+        <v>9.6999999999999993</v>
+      </c>
       <c r="BK42" s="11"/>
       <c r="BL42" s="11"/>
       <c r="BM42" s="11"/>
@@ -10693,7 +10785,9 @@
       <c r="BI43" s="13">
         <v>60993</v>
       </c>
-      <c r="BJ43" s="11"/>
+      <c r="BJ43">
+        <v>18.54</v>
+      </c>
       <c r="BK43" s="11"/>
       <c r="BL43" s="11"/>
       <c r="BM43" s="11"/>
@@ -10918,7 +11012,9 @@
       <c r="BI44" s="13">
         <v>365358</v>
       </c>
-      <c r="BJ44" s="11"/>
+      <c r="BJ44">
+        <v>9.9</v>
+      </c>
       <c r="BK44" s="11"/>
       <c r="BL44" s="11"/>
       <c r="BM44" s="11"/>
@@ -11143,7 +11239,9 @@
       <c r="BI45" s="13">
         <v>74163</v>
       </c>
-      <c r="BJ45" s="11"/>
+      <c r="BJ45">
+        <v>10.06</v>
+      </c>
       <c r="BK45" s="11"/>
       <c r="BL45" s="11"/>
       <c r="BM45" s="11"/>
@@ -11368,7 +11466,9 @@
       <c r="BI46" s="13">
         <v>524772</v>
       </c>
-      <c r="BJ46" s="11"/>
+      <c r="BJ46">
+        <v>9.52</v>
+      </c>
       <c r="BK46" s="11"/>
       <c r="BL46" s="11"/>
       <c r="BM46" s="11"/>
@@ -11593,7 +11693,9 @@
       <c r="BI47" s="13">
         <v>1767320</v>
       </c>
-      <c r="BJ47" s="11"/>
+      <c r="BJ47">
+        <v>8.36</v>
+      </c>
       <c r="BK47" s="11"/>
       <c r="BL47" s="11"/>
       <c r="BM47" s="11"/>
@@ -11818,7 +11920,9 @@
       <c r="BI48" s="13">
         <v>187767</v>
       </c>
-      <c r="BJ48" s="11"/>
+      <c r="BJ48">
+        <v>8.27</v>
+      </c>
       <c r="BK48" s="11"/>
       <c r="BL48" s="11"/>
       <c r="BM48" s="11"/>
@@ -12043,7 +12147,9 @@
       <c r="BI49" s="13">
         <v>571741</v>
       </c>
-      <c r="BJ49" s="11"/>
+      <c r="BJ49">
+        <v>16.329999999999998</v>
+      </c>
       <c r="BK49" s="11"/>
       <c r="BL49" s="11"/>
       <c r="BM49" s="11"/>
@@ -12268,7 +12374,9 @@
       <c r="BI50" s="13">
         <v>47847</v>
       </c>
-      <c r="BJ50" s="11"/>
+      <c r="BJ50">
+        <v>9.16</v>
+      </c>
       <c r="BK50" s="11"/>
       <c r="BL50" s="11"/>
       <c r="BM50" s="11"/>
@@ -12493,7 +12601,9 @@
       <c r="BI51" s="13">
         <v>496532</v>
       </c>
-      <c r="BJ51" s="11"/>
+      <c r="BJ51">
+        <v>8.33</v>
+      </c>
       <c r="BK51" s="11"/>
       <c r="BL51" s="11"/>
       <c r="BM51" s="11"/>
@@ -12718,7 +12828,9 @@
       <c r="BI52" s="13">
         <v>447185</v>
       </c>
-      <c r="BJ52" s="11"/>
+      <c r="BJ52">
+        <v>10.82</v>
+      </c>
       <c r="BK52" s="11"/>
       <c r="BL52" s="11"/>
       <c r="BM52" s="11"/>
@@ -12943,7 +13055,9 @@
       <c r="BI53" s="13">
         <v>156114</v>
       </c>
-      <c r="BJ53" s="11"/>
+      <c r="BJ53">
+        <v>8.75</v>
+      </c>
       <c r="BK53" s="11"/>
       <c r="BL53" s="11"/>
       <c r="BM53" s="11"/>
@@ -13168,7 +13282,9 @@
       <c r="BI54" s="13">
         <v>53913</v>
       </c>
-      <c r="BJ54" s="11"/>
+      <c r="BJ54">
+        <v>8.27</v>
+      </c>
       <c r="BK54" s="11"/>
       <c r="BL54" s="11"/>
       <c r="BM54" s="11"/>
@@ -13393,7 +13509,9 @@
       <c r="BI55" s="13">
         <v>21037214</v>
       </c>
-      <c r="BJ55" s="11"/>
+      <c r="BJ55">
+        <v>10.59</v>
+      </c>
       <c r="BK55" s="11"/>
       <c r="BL55" s="11"/>
       <c r="BM55" s="11"/>
@@ -13441,24 +13559,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:CW55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="AZ4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="BH1" sqref="BH1:BH1048576"/>
       <selection pane="topRight" activeCell="BH1" sqref="BH1:BH1048576"/>
       <selection pane="bottomLeft" activeCell="BH1" sqref="BH1:BH1048576"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="BJ3" sqref="BJ3:BJ55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.09765625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="10.09765625" style="10" customWidth="1"/>
-    <col min="3" max="6" width="10.09765625" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="61" width="11.09765625" style="10" bestFit="1" customWidth="1"/>
-    <col min="62" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="6.125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="10.125" style="10" customWidth="1"/>
+    <col min="3" max="6" width="10.125" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="61" width="11.125" style="10" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="27.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="63" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:101" customFormat="1" x14ac:dyDescent="0.25">
@@ -13653,6 +13772,9 @@
       <c r="BI3" s="8">
         <v>2019</v>
       </c>
+      <c r="BJ3" s="14" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="4" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -13838,7 +13960,9 @@
       <c r="BI4" s="13">
         <v>56959</v>
       </c>
-      <c r="BJ4" s="11"/>
+      <c r="BJ4" s="15">
+        <v>19.82</v>
+      </c>
       <c r="BK4" s="11"/>
       <c r="BL4" s="11"/>
       <c r="BM4" s="11"/>
@@ -14063,7 +14187,9 @@
       <c r="BI5" s="13">
         <v>257727</v>
       </c>
-      <c r="BJ5" s="11"/>
+      <c r="BJ5" s="15">
+        <v>9.84</v>
+      </c>
       <c r="BK5" s="11"/>
       <c r="BL5" s="11"/>
       <c r="BM5" s="11"/>
@@ -14288,7 +14414,9 @@
       <c r="BI6" s="13">
         <v>180162</v>
       </c>
-      <c r="BJ6" s="11"/>
+      <c r="BJ6" s="14">
+        <v>8.32</v>
+      </c>
       <c r="BK6" s="11"/>
       <c r="BL6" s="11"/>
       <c r="BM6" s="11"/>
@@ -14513,7 +14641,9 @@
       <c r="BI7" s="13">
         <v>347401</v>
       </c>
-      <c r="BJ7" s="11"/>
+      <c r="BJ7" s="15">
+        <v>10.44</v>
+      </c>
       <c r="BK7" s="11"/>
       <c r="BL7" s="11"/>
       <c r="BM7" s="11"/>
@@ -14738,7 +14868,9 @@
       <c r="BI8" s="13">
         <v>1468088</v>
       </c>
-      <c r="BJ8" s="11"/>
+      <c r="BJ8" s="14">
+        <v>18</v>
+      </c>
       <c r="BK8" s="11"/>
       <c r="BL8" s="11"/>
       <c r="BM8" s="11"/>
@@ -14963,7 +15095,9 @@
       <c r="BI9" s="13">
         <v>300962</v>
       </c>
-      <c r="BJ9" s="11"/>
+      <c r="BJ9">
+        <v>10.27</v>
+      </c>
       <c r="BK9" s="11"/>
       <c r="BL9" s="11"/>
       <c r="BM9" s="11"/>
@@ -15188,7 +15322,9 @@
       <c r="BI10" s="13">
         <v>187749</v>
       </c>
-      <c r="BJ10" s="11"/>
+      <c r="BJ10">
+        <v>19.13</v>
+      </c>
       <c r="BK10" s="11"/>
       <c r="BL10" s="11"/>
       <c r="BM10" s="11"/>
@@ -15413,7 +15549,9 @@
       <c r="BI11" s="13">
         <v>101339</v>
       </c>
-      <c r="BJ11" s="11"/>
+      <c r="BJ11">
+        <v>11.9</v>
+      </c>
       <c r="BK11" s="11"/>
       <c r="BL11" s="11"/>
       <c r="BM11" s="11"/>
@@ -15638,7 +15776,9 @@
       <c r="BI12" s="13">
         <v>61047</v>
       </c>
-      <c r="BJ12" s="11"/>
+      <c r="BJ12">
+        <v>10.24</v>
+      </c>
       <c r="BK12" s="11"/>
       <c r="BL12" s="11"/>
       <c r="BM12" s="11"/>
@@ -15863,7 +16003,9 @@
       <c r="BI13" s="13">
         <v>966489</v>
       </c>
-      <c r="BJ13" s="11"/>
+      <c r="BJ13">
+        <v>10.06</v>
+      </c>
       <c r="BK13" s="11"/>
       <c r="BL13" s="11"/>
       <c r="BM13" s="11"/>
@@ -16088,7 +16230,9 @@
       <c r="BI14" s="13">
         <v>539326</v>
       </c>
-      <c r="BJ14" s="11"/>
+      <c r="BJ14">
+        <v>9.93</v>
+      </c>
       <c r="BK14" s="11"/>
       <c r="BL14" s="11"/>
       <c r="BM14" s="11"/>
@@ -16313,7 +16457,9 @@
       <c r="BI15" s="13">
         <v>42895</v>
       </c>
-      <c r="BJ15" s="11"/>
+      <c r="BJ15">
+        <v>27.55</v>
+      </c>
       <c r="BK15" s="11"/>
       <c r="BL15" s="11"/>
       <c r="BM15" s="11"/>
@@ -16538,7 +16684,9 @@
       <c r="BI16" s="13">
         <v>201061</v>
       </c>
-      <c r="BJ16" s="11"/>
+      <c r="BJ16">
+        <v>8.9700000000000006</v>
+      </c>
       <c r="BK16" s="11"/>
       <c r="BL16" s="11"/>
       <c r="BM16" s="11"/>
@@ -16763,7 +16911,9 @@
       <c r="BI17" s="13">
         <v>92502</v>
       </c>
-      <c r="BJ17" s="11"/>
+      <c r="BJ17">
+        <v>7.99</v>
+      </c>
       <c r="BK17" s="11"/>
       <c r="BL17" s="11"/>
       <c r="BM17" s="11"/>
@@ -16988,7 +17138,9 @@
       <c r="BI18" s="13">
         <v>808854</v>
       </c>
-      <c r="BJ18" s="11"/>
+      <c r="BJ18">
+        <v>9.75</v>
+      </c>
       <c r="BK18" s="11"/>
       <c r="BL18" s="11"/>
       <c r="BM18" s="11"/>
@@ -17213,7 +17365,9 @@
       <c r="BI19" s="13">
         <v>366790</v>
       </c>
-      <c r="BJ19" s="11"/>
+      <c r="BJ19">
+        <v>9.92</v>
+      </c>
       <c r="BK19" s="11"/>
       <c r="BL19" s="11"/>
       <c r="BM19" s="11"/>
@@ -17438,7 +17592,9 @@
       <c r="BI20" s="13">
         <v>218734</v>
       </c>
-      <c r="BJ20" s="11"/>
+      <c r="BJ20">
+        <v>10.38</v>
+      </c>
       <c r="BK20" s="11"/>
       <c r="BL20" s="11"/>
       <c r="BM20" s="11"/>
@@ -17663,7 +17819,9 @@
       <c r="BI21" s="13">
         <v>260106</v>
       </c>
-      <c r="BJ21" s="11"/>
+      <c r="BJ21">
+        <v>8.58</v>
+      </c>
       <c r="BK21" s="11"/>
       <c r="BL21" s="11"/>
       <c r="BM21" s="11"/>
@@ -17888,7 +18046,9 @@
       <c r="BI22" s="13">
         <v>259841</v>
       </c>
-      <c r="BJ22" s="11"/>
+      <c r="BJ22">
+        <v>7.51</v>
+      </c>
       <c r="BK22" s="11"/>
       <c r="BL22" s="11"/>
       <c r="BM22" s="11"/>
@@ -18113,7 +18273,9 @@
       <c r="BI23" s="13">
         <v>409658</v>
       </c>
-      <c r="BJ23" s="11"/>
+      <c r="BJ23">
+        <v>18.190000000000001</v>
+      </c>
       <c r="BK23" s="11"/>
       <c r="BL23" s="11"/>
       <c r="BM23" s="11"/>
@@ -18338,7 +18500,9 @@
       <c r="BI24" s="13">
         <v>396546</v>
       </c>
-      <c r="BJ24" s="11"/>
+      <c r="BJ24">
+        <v>11.15</v>
+      </c>
       <c r="BK24" s="11"/>
       <c r="BL24" s="11"/>
       <c r="BM24" s="11"/>
@@ -18563,7 +18727,9 @@
       <c r="BI25" s="13">
         <v>67625</v>
       </c>
-      <c r="BJ25" s="11"/>
+      <c r="BJ25">
+        <v>13.54</v>
+      </c>
       <c r="BK25" s="11"/>
       <c r="BL25" s="11"/>
       <c r="BM25" s="11"/>
@@ -18788,7 +18954,9 @@
       <c r="BI26" s="13">
         <v>612415</v>
       </c>
-      <c r="BJ26" s="11"/>
+      <c r="BJ26">
+        <v>12.21</v>
+      </c>
       <c r="BK26" s="11"/>
       <c r="BL26" s="11"/>
       <c r="BM26" s="11"/>
@@ -19013,7 +19181,9 @@
       <c r="BI27" s="13">
         <v>356842</v>
       </c>
-      <c r="BJ27" s="11"/>
+      <c r="BJ27">
+        <v>10.57</v>
+      </c>
       <c r="BK27" s="11"/>
       <c r="BL27" s="11"/>
       <c r="BM27" s="11"/>
@@ -19238,7 +19408,9 @@
       <c r="BI28" s="13">
         <v>407111</v>
       </c>
-      <c r="BJ28" s="11"/>
+      <c r="BJ28">
+        <v>9.64</v>
+      </c>
       <c r="BK28" s="11"/>
       <c r="BL28" s="11"/>
       <c r="BM28" s="11"/>
@@ -19463,7 +19635,9 @@
       <c r="BI29" s="13">
         <v>154067</v>
       </c>
-      <c r="BJ29" s="11"/>
+      <c r="BJ29">
+        <v>9.1300000000000008</v>
+      </c>
       <c r="BK29" s="11"/>
       <c r="BL29" s="11"/>
       <c r="BM29" s="11"/>
@@ -19688,7 +19862,9 @@
       <c r="BI30" s="13">
         <v>87001</v>
       </c>
-      <c r="BJ30" s="11"/>
+      <c r="BJ30">
+        <v>9.1300000000000008</v>
+      </c>
       <c r="BK30" s="11"/>
       <c r="BL30" s="11"/>
       <c r="BM30" s="11"/>
@@ -19913,7 +20089,9 @@
       <c r="BI31" s="13">
         <v>577815</v>
       </c>
-      <c r="BJ31" s="11"/>
+      <c r="BJ31">
+        <v>9.43</v>
+      </c>
       <c r="BK31" s="11"/>
       <c r="BL31" s="11"/>
       <c r="BM31" s="11"/>
@@ -20138,7 +20316,9 @@
       <c r="BI32" s="13">
         <v>97206</v>
       </c>
-      <c r="BJ32" s="11"/>
+      <c r="BJ32">
+        <v>8.5299999999999994</v>
+      </c>
       <c r="BK32" s="11"/>
       <c r="BL32" s="11"/>
       <c r="BM32" s="11"/>
@@ -20363,7 +20543,9 @@
       <c r="BI33" s="13">
         <v>148329</v>
       </c>
-      <c r="BJ33" s="11"/>
+      <c r="BJ33">
+        <v>8.9700000000000006</v>
+      </c>
       <c r="BK33" s="11"/>
       <c r="BL33" s="11"/>
       <c r="BM33" s="11"/>
@@ -20588,7 +20770,9 @@
       <c r="BI34" s="13">
         <v>71036</v>
       </c>
-      <c r="BJ34" s="11"/>
+      <c r="BJ34">
+        <v>16.63</v>
+      </c>
       <c r="BK34" s="11"/>
       <c r="BL34" s="11"/>
       <c r="BM34" s="11"/>
@@ -20813,7 +20997,9 @@
       <c r="BI35" s="13">
         <v>557469</v>
       </c>
-      <c r="BJ35" s="11"/>
+      <c r="BJ35">
+        <v>13.63</v>
+      </c>
       <c r="BK35" s="11"/>
       <c r="BL35" s="11"/>
       <c r="BM35" s="11"/>
@@ -21038,7 +21224,9 @@
       <c r="BI36" s="13">
         <v>129204</v>
       </c>
-      <c r="BJ36" s="11"/>
+      <c r="BJ36">
+        <v>9.33</v>
+      </c>
       <c r="BK36" s="11"/>
       <c r="BL36" s="11"/>
       <c r="BM36" s="11"/>
@@ -21263,7 +21451,9 @@
       <c r="BI37" s="13">
         <v>153879</v>
       </c>
-      <c r="BJ37" s="11"/>
+      <c r="BJ37">
+        <v>8.33</v>
+      </c>
       <c r="BK37" s="11"/>
       <c r="BL37" s="11"/>
       <c r="BM37" s="11"/>
@@ -21488,7 +21678,9 @@
       <c r="BI38" s="13">
         <v>1122017</v>
       </c>
-      <c r="BJ38" s="11"/>
+      <c r="BJ38">
+        <v>14.87</v>
+      </c>
       <c r="BK38" s="11"/>
       <c r="BL38" s="11"/>
       <c r="BM38" s="11"/>
@@ -21713,7 +21905,9 @@
       <c r="BI39" s="13">
         <v>678292</v>
       </c>
-      <c r="BJ39" s="11"/>
+      <c r="BJ39">
+        <v>9.44</v>
+      </c>
       <c r="BK39" s="11"/>
       <c r="BL39" s="11"/>
       <c r="BM39" s="11"/>
@@ -21938,7 +22132,9 @@
       <c r="BI40" s="13">
         <v>244838</v>
       </c>
-      <c r="BJ40" s="11"/>
+      <c r="BJ40">
+        <v>7.63</v>
+      </c>
       <c r="BK40" s="11"/>
       <c r="BL40" s="11"/>
       <c r="BM40" s="11"/>
@@ -22163,7 +22359,9 @@
       <c r="BI41" s="13">
         <v>195845</v>
       </c>
-      <c r="BJ41" s="11"/>
+      <c r="BJ41">
+        <v>8.82</v>
+      </c>
       <c r="BK41" s="11"/>
       <c r="BL41" s="11"/>
       <c r="BM41" s="11"/>
@@ -22388,7 +22586,9 @@
       <c r="BI42" s="13">
         <v>601459</v>
       </c>
-      <c r="BJ42" s="11"/>
+      <c r="BJ42">
+        <v>9.6999999999999993</v>
+      </c>
       <c r="BK42" s="11"/>
       <c r="BL42" s="11"/>
       <c r="BM42" s="11"/>
@@ -22613,7 +22813,9 @@
       <c r="BI43" s="13">
         <v>48052</v>
       </c>
-      <c r="BJ43" s="11"/>
+      <c r="BJ43">
+        <v>18.54</v>
+      </c>
       <c r="BK43" s="11"/>
       <c r="BL43" s="11"/>
       <c r="BM43" s="11"/>
@@ -22838,7 +23040,9 @@
       <c r="BI44" s="13">
         <v>271618</v>
       </c>
-      <c r="BJ44" s="11"/>
+      <c r="BJ44">
+        <v>9.9</v>
+      </c>
       <c r="BK44" s="11"/>
       <c r="BL44" s="11"/>
       <c r="BM44" s="11"/>
@@ -23063,7 +23267,9 @@
       <c r="BI45" s="13">
         <v>65449</v>
       </c>
-      <c r="BJ45" s="11"/>
+      <c r="BJ45">
+        <v>10.06</v>
+      </c>
       <c r="BK45" s="11"/>
       <c r="BL45" s="11"/>
       <c r="BM45" s="11"/>
@@ -23288,7 +23494,9 @@
       <c r="BI46" s="13">
         <v>447089</v>
       </c>
-      <c r="BJ46" s="11"/>
+      <c r="BJ46">
+        <v>9.52</v>
+      </c>
       <c r="BK46" s="11"/>
       <c r="BL46" s="11"/>
       <c r="BM46" s="11"/>
@@ -23513,7 +23721,9 @@
       <c r="BI47" s="13">
         <v>1626670</v>
       </c>
-      <c r="BJ47" s="11"/>
+      <c r="BJ47">
+        <v>8.36</v>
+      </c>
       <c r="BK47" s="11"/>
       <c r="BL47" s="11"/>
       <c r="BM47" s="11"/>
@@ -23738,7 +23948,9 @@
       <c r="BI48" s="13">
         <v>176564</v>
       </c>
-      <c r="BJ48" s="11"/>
+      <c r="BJ48">
+        <v>8.27</v>
+      </c>
       <c r="BK48" s="11"/>
       <c r="BL48" s="11"/>
       <c r="BM48" s="11"/>
@@ -23963,7 +24175,9 @@
       <c r="BI49" s="13">
         <v>631160</v>
       </c>
-      <c r="BJ49" s="11"/>
+      <c r="BJ49">
+        <v>16.329999999999998</v>
+      </c>
       <c r="BK49" s="11"/>
       <c r="BL49" s="11"/>
       <c r="BM49" s="11"/>
@@ -24188,7 +24402,9 @@
       <c r="BI50" s="13">
         <v>25937</v>
       </c>
-      <c r="BJ50" s="11"/>
+      <c r="BJ50">
+        <v>9.16</v>
+      </c>
       <c r="BK50" s="11"/>
       <c r="BL50" s="11"/>
       <c r="BM50" s="11"/>
@@ -24413,7 +24629,9 @@
       <c r="BI51" s="13">
         <v>370191</v>
       </c>
-      <c r="BJ51" s="11"/>
+      <c r="BJ51">
+        <v>8.33</v>
+      </c>
       <c r="BK51" s="11"/>
       <c r="BL51" s="11"/>
       <c r="BM51" s="11"/>
@@ -24638,7 +24856,9 @@
       <c r="BI52" s="13">
         <v>362969</v>
       </c>
-      <c r="BJ52" s="11"/>
+      <c r="BJ52">
+        <v>10.82</v>
+      </c>
       <c r="BK52" s="11"/>
       <c r="BL52" s="11"/>
       <c r="BM52" s="11"/>
@@ -24863,7 +25083,9 @@
       <c r="BI53" s="13">
         <v>111765</v>
       </c>
-      <c r="BJ53" s="11"/>
+      <c r="BJ53">
+        <v>8.75</v>
+      </c>
       <c r="BK53" s="11"/>
       <c r="BL53" s="11"/>
       <c r="BM53" s="11"/>
@@ -25088,7 +25310,9 @@
       <c r="BI54" s="13">
         <v>57342</v>
       </c>
-      <c r="BJ54" s="11"/>
+      <c r="BJ54">
+        <v>8.27</v>
+      </c>
       <c r="BK54" s="11"/>
       <c r="BL54" s="11"/>
       <c r="BM54" s="11"/>
@@ -25313,7 +25537,9 @@
       <c r="BI55" s="13">
         <v>17981489</v>
       </c>
-      <c r="BJ55" s="11"/>
+      <c r="BJ55">
+        <v>10.59</v>
+      </c>
       <c r="BK55" s="11"/>
       <c r="BL55" s="11"/>
       <c r="BM55" s="11"/>
@@ -25360,7 +25586,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:CW55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -25371,12 +25597,12 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.09765625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="10.09765625" style="10" customWidth="1"/>
-    <col min="3" max="6" width="10.09765625" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="61" width="11.09765625" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="10.125" style="10" customWidth="1"/>
+    <col min="3" max="6" width="10.125" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="61" width="11.125" style="10" bestFit="1" customWidth="1"/>
     <col min="62" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
@@ -37279,7 +37505,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:CW55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -37289,12 +37515,12 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.09765625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="10.09765625" style="10" customWidth="1"/>
-    <col min="3" max="6" width="10.09765625" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="61" width="11.09765625" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="10.125" style="10" customWidth="1"/>
+    <col min="3" max="6" width="10.125" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="61" width="11.125" style="10" bestFit="1" customWidth="1"/>
     <col min="62" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
@@ -49197,7 +49423,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:CW55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -49207,12 +49433,12 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.09765625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="10.09765625" style="10" customWidth="1"/>
-    <col min="3" max="6" width="10.09765625" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="61" width="11.09765625" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="10.125" style="10" customWidth="1"/>
+    <col min="3" max="6" width="10.125" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="61" width="11.125" style="10" bestFit="1" customWidth="1"/>
     <col min="62" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>

--- a/use_tot_sector.xlsx
+++ b/use_tot_sector.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c987f5592cee8402/Documents/INST490/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UMD\2022 Spring\INST490\INST490-Capstone-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{363F4847-A28A-48DF-91EE-F9C8F5D8D194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C99FB14-C77B-42FC-9319-C43FE3E09C56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="657" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2622" yWindow="2226" windowWidth="17280" windowHeight="8904" tabRatio="657" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="7" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="88">
   <si>
     <t>State</t>
   </si>
@@ -323,9 +323,6 @@
   <si>
     <t>US</t>
   </si>
-  <si>
-    <t>Average retail price (cents/kWh)</t>
-  </si>
 </sst>
 </file>
 
@@ -438,7 +435,7 @@
     </xf>
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
@@ -453,8 +450,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -1353,42 +1348,42 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="34.875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="43.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="34.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="43.47265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="5" customWidth="1"/>
     <col min="4" max="4" width="9" style="5"/>
     <col min="5" max="5" width="10" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="18.3" x14ac:dyDescent="0.7">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="18.3" x14ac:dyDescent="0.7">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="18.3" x14ac:dyDescent="0.7">
       <c r="A7" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -1405,7 +1400,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
@@ -1422,7 +1417,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
@@ -1439,7 +1434,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
@@ -1456,7 +1451,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2" t="s">
         <v>6</v>
       </c>
@@ -1473,7 +1468,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
@@ -1490,25 +1485,25 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="6" t="s">
         <v>10</v>
       </c>
@@ -1531,36 +1526,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:CW55"/>
+  <dimension ref="A1:CV55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="BA4" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="BH4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BO26" sqref="BO26"/>
+      <selection pane="bottomRight" activeCell="BJ1" sqref="BJ1:BJ1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="6.125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="10.125" style="10" customWidth="1"/>
-    <col min="3" max="6" width="10.125" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="61" width="11.125" style="10" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="27.375" style="14" bestFit="1" customWidth="1"/>
-    <col min="63" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="6.140625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="10" customWidth="1"/>
+    <col min="3" max="6" width="10.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="61" width="11.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="62" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:101" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:100" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="BJ1" s="14"/>
     </row>
-    <row r="2" spans="1:101" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:100" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A2" s="8"/>
-      <c r="BJ2" s="14"/>
     </row>
-    <row r="3" spans="1:101" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:100" s="8" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
@@ -1744,11 +1736,8 @@
       <c r="BI3" s="8">
         <v>2019</v>
       </c>
-      <c r="BJ3" s="14" t="s">
-        <v>88</v>
-      </c>
     </row>
-    <row r="4" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A4" s="8" t="s">
         <v>36</v>
       </c>
@@ -1932,9 +1921,7 @@
       <c r="BI4" s="13">
         <v>48580</v>
       </c>
-      <c r="BJ4" s="15">
-        <v>19.82</v>
-      </c>
+      <c r="BJ4" s="11"/>
       <c r="BK4" s="11"/>
       <c r="BL4" s="11"/>
       <c r="BM4" s="11"/>
@@ -1973,9 +1960,8 @@
       <c r="CT4" s="11"/>
       <c r="CU4" s="11"/>
       <c r="CV4" s="11"/>
-      <c r="CW4" s="11"/>
     </row>
-    <row r="5" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A5" s="8" t="s">
         <v>37</v>
       </c>
@@ -2159,9 +2145,7 @@
       <c r="BI5" s="13">
         <v>347873</v>
       </c>
-      <c r="BJ5" s="15">
-        <v>9.84</v>
-      </c>
+      <c r="BJ5" s="11"/>
       <c r="BK5" s="11"/>
       <c r="BL5" s="11"/>
       <c r="BM5" s="11"/>
@@ -2200,9 +2184,8 @@
       <c r="CT5" s="11"/>
       <c r="CU5" s="11"/>
       <c r="CV5" s="11"/>
-      <c r="CW5" s="11"/>
     </row>
-    <row r="6" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A6" s="8" t="s">
         <v>38</v>
       </c>
@@ -2386,9 +2369,7 @@
       <c r="BI6" s="13">
         <v>226877</v>
       </c>
-      <c r="BJ6" s="14">
-        <v>8.32</v>
-      </c>
+      <c r="BJ6" s="11"/>
       <c r="BK6" s="11"/>
       <c r="BL6" s="11"/>
       <c r="BM6" s="11"/>
@@ -2427,9 +2408,8 @@
       <c r="CT6" s="11"/>
       <c r="CU6" s="11"/>
       <c r="CV6" s="11"/>
-      <c r="CW6" s="11"/>
     </row>
-    <row r="7" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A7" s="8" t="s">
         <v>39</v>
       </c>
@@ -2613,9 +2593,7 @@
       <c r="BI7" s="13">
         <v>412787</v>
       </c>
-      <c r="BJ7" s="15">
-        <v>10.44</v>
-      </c>
+      <c r="BJ7" s="11"/>
       <c r="BK7" s="11"/>
       <c r="BL7" s="11"/>
       <c r="BM7" s="11"/>
@@ -2654,9 +2632,8 @@
       <c r="CT7" s="11"/>
       <c r="CU7" s="11"/>
       <c r="CV7" s="11"/>
-      <c r="CW7" s="11"/>
     </row>
-    <row r="8" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A8" s="8" t="s">
         <v>40</v>
       </c>
@@ -2840,9 +2817,7 @@
       <c r="BI8" s="13">
         <v>1455702</v>
       </c>
-      <c r="BJ8" s="14">
-        <v>18</v>
-      </c>
+      <c r="BJ8" s="11"/>
       <c r="BK8" s="11"/>
       <c r="BL8" s="11"/>
       <c r="BM8" s="11"/>
@@ -2881,9 +2856,8 @@
       <c r="CT8" s="11"/>
       <c r="CU8" s="11"/>
       <c r="CV8" s="11"/>
-      <c r="CW8" s="11"/>
     </row>
-    <row r="9" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A9" s="8" t="s">
         <v>41</v>
       </c>
@@ -3067,9 +3041,7 @@
       <c r="BI9" s="13">
         <v>378983</v>
       </c>
-      <c r="BJ9">
-        <v>10.27</v>
-      </c>
+      <c r="BJ9" s="11"/>
       <c r="BK9" s="11"/>
       <c r="BL9" s="11"/>
       <c r="BM9" s="11"/>
@@ -3108,9 +3080,8 @@
       <c r="CT9" s="11"/>
       <c r="CU9" s="11"/>
       <c r="CV9" s="11"/>
-      <c r="CW9" s="11"/>
     </row>
-    <row r="10" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A10" s="8" t="s">
         <v>42</v>
       </c>
@@ -3294,9 +3265,7 @@
       <c r="BI10" s="13">
         <v>239810</v>
       </c>
-      <c r="BJ10">
-        <v>19.13</v>
-      </c>
+      <c r="BJ10" s="11"/>
       <c r="BK10" s="11"/>
       <c r="BL10" s="11"/>
       <c r="BM10" s="11"/>
@@ -3335,9 +3304,8 @@
       <c r="CT10" s="11"/>
       <c r="CU10" s="11"/>
       <c r="CV10" s="11"/>
-      <c r="CW10" s="11"/>
     </row>
-    <row r="11" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A11" s="8" t="s">
         <v>43</v>
       </c>
@@ -3521,9 +3489,7 @@
       <c r="BI11" s="13">
         <v>39337</v>
       </c>
-      <c r="BJ11">
-        <v>11.9</v>
-      </c>
+      <c r="BJ11" s="11"/>
       <c r="BK11" s="11"/>
       <c r="BL11" s="11"/>
       <c r="BM11" s="11"/>
@@ -3562,9 +3528,8 @@
       <c r="CT11" s="11"/>
       <c r="CU11" s="11"/>
       <c r="CV11" s="11"/>
-      <c r="CW11" s="11"/>
     </row>
-    <row r="12" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A12" s="8" t="s">
         <v>44</v>
       </c>
@@ -3748,9 +3713,7 @@
       <c r="BI12" s="13">
         <v>65584</v>
       </c>
-      <c r="BJ12">
-        <v>10.24</v>
-      </c>
+      <c r="BJ12" s="11"/>
       <c r="BK12" s="11"/>
       <c r="BL12" s="11"/>
       <c r="BM12" s="11"/>
@@ -3789,9 +3752,8 @@
       <c r="CT12" s="11"/>
       <c r="CU12" s="11"/>
       <c r="CV12" s="11"/>
-      <c r="CW12" s="11"/>
     </row>
-    <row r="13" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A13" s="8" t="s">
         <v>45</v>
       </c>
@@ -3975,9 +3937,7 @@
       <c r="BI13" s="13">
         <v>1180439</v>
       </c>
-      <c r="BJ13">
-        <v>10.06</v>
-      </c>
+      <c r="BJ13" s="11"/>
       <c r="BK13" s="11"/>
       <c r="BL13" s="11"/>
       <c r="BM13" s="11"/>
@@ -4016,9 +3976,8 @@
       <c r="CT13" s="11"/>
       <c r="CU13" s="11"/>
       <c r="CV13" s="11"/>
-      <c r="CW13" s="11"/>
     </row>
-    <row r="14" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A14" s="8" t="s">
         <v>46</v>
       </c>
@@ -4202,9 +4161,7 @@
       <c r="BI14" s="13">
         <v>715836</v>
       </c>
-      <c r="BJ14">
-        <v>9.93</v>
-      </c>
+      <c r="BJ14" s="11"/>
       <c r="BK14" s="11"/>
       <c r="BL14" s="11"/>
       <c r="BM14" s="11"/>
@@ -4243,9 +4200,8 @@
       <c r="CT14" s="11"/>
       <c r="CU14" s="11"/>
       <c r="CV14" s="11"/>
-      <c r="CW14" s="11"/>
     </row>
-    <row r="15" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A15" s="8" t="s">
         <v>47</v>
       </c>
@@ -4429,9 +4385,7 @@
       <c r="BI15" s="13">
         <v>34545</v>
       </c>
-      <c r="BJ15">
-        <v>27.55</v>
-      </c>
+      <c r="BJ15" s="11"/>
       <c r="BK15" s="11"/>
       <c r="BL15" s="11"/>
       <c r="BM15" s="11"/>
@@ -4470,9 +4424,8 @@
       <c r="CT15" s="11"/>
       <c r="CU15" s="11"/>
       <c r="CV15" s="11"/>
-      <c r="CW15" s="11"/>
     </row>
-    <row r="16" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A16" s="8" t="s">
         <v>48</v>
       </c>
@@ -4656,9 +4609,7 @@
       <c r="BI16" s="13">
         <v>248336</v>
       </c>
-      <c r="BJ16">
-        <v>8.9700000000000006</v>
-      </c>
+      <c r="BJ16" s="11"/>
       <c r="BK16" s="11"/>
       <c r="BL16" s="11"/>
       <c r="BM16" s="11"/>
@@ -4697,9 +4648,8 @@
       <c r="CT16" s="11"/>
       <c r="CU16" s="11"/>
       <c r="CV16" s="11"/>
-      <c r="CW16" s="11"/>
     </row>
-    <row r="17" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A17" s="8" t="s">
         <v>49</v>
       </c>
@@ -4883,9 +4833,7 @@
       <c r="BI17" s="13">
         <v>136900</v>
       </c>
-      <c r="BJ17">
-        <v>7.99</v>
-      </c>
+      <c r="BJ17" s="11"/>
       <c r="BK17" s="11"/>
       <c r="BL17" s="11"/>
       <c r="BM17" s="11"/>
@@ -4924,9 +4872,8 @@
       <c r="CT17" s="11"/>
       <c r="CU17" s="11"/>
       <c r="CV17" s="11"/>
-      <c r="CW17" s="11"/>
     </row>
-    <row r="18" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A18" s="8" t="s">
         <v>50</v>
       </c>
@@ -5110,9 +5057,7 @@
       <c r="BI18" s="13">
         <v>970625</v>
       </c>
-      <c r="BJ18">
-        <v>9.75</v>
-      </c>
+      <c r="BJ18" s="11"/>
       <c r="BK18" s="11"/>
       <c r="BL18" s="11"/>
       <c r="BM18" s="11"/>
@@ -5151,9 +5096,8 @@
       <c r="CT18" s="11"/>
       <c r="CU18" s="11"/>
       <c r="CV18" s="11"/>
-      <c r="CW18" s="11"/>
     </row>
-    <row r="19" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A19" s="8" t="s">
         <v>51</v>
       </c>
@@ -5337,9 +5281,7 @@
       <c r="BI19" s="13">
         <v>536499</v>
       </c>
-      <c r="BJ19">
-        <v>9.92</v>
-      </c>
+      <c r="BJ19" s="11"/>
       <c r="BK19" s="11"/>
       <c r="BL19" s="11"/>
       <c r="BM19" s="11"/>
@@ -5378,9 +5320,8 @@
       <c r="CT19" s="11"/>
       <c r="CU19" s="11"/>
       <c r="CV19" s="11"/>
-      <c r="CW19" s="11"/>
     </row>
-    <row r="20" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A20" s="8" t="s">
         <v>52</v>
       </c>
@@ -5564,9 +5505,7 @@
       <c r="BI20" s="13">
         <v>228838</v>
       </c>
-      <c r="BJ20">
-        <v>10.38</v>
-      </c>
+      <c r="BJ20" s="11"/>
       <c r="BK20" s="11"/>
       <c r="BL20" s="11"/>
       <c r="BM20" s="11"/>
@@ -5605,9 +5544,8 @@
       <c r="CT20" s="11"/>
       <c r="CU20" s="11"/>
       <c r="CV20" s="11"/>
-      <c r="CW20" s="11"/>
     </row>
-    <row r="21" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A21" s="8" t="s">
         <v>53</v>
       </c>
@@ -5791,9 +5729,7 @@
       <c r="BI21" s="13">
         <v>352177</v>
       </c>
-      <c r="BJ21">
-        <v>8.58</v>
-      </c>
+      <c r="BJ21" s="11"/>
       <c r="BK21" s="11"/>
       <c r="BL21" s="11"/>
       <c r="BM21" s="11"/>
@@ -5832,9 +5768,8 @@
       <c r="CT21" s="11"/>
       <c r="CU21" s="11"/>
       <c r="CV21" s="11"/>
-      <c r="CW21" s="11"/>
     </row>
-    <row r="22" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A22" s="8" t="s">
         <v>54</v>
       </c>
@@ -6018,9 +5953,7 @@
       <c r="BI22" s="13">
         <v>318333</v>
       </c>
-      <c r="BJ22">
-        <v>7.51</v>
-      </c>
+      <c r="BJ22" s="11"/>
       <c r="BK22" s="11"/>
       <c r="BL22" s="11"/>
       <c r="BM22" s="11"/>
@@ -6059,9 +5992,8 @@
       <c r="CT22" s="11"/>
       <c r="CU22" s="11"/>
       <c r="CV22" s="11"/>
-      <c r="CW22" s="11"/>
     </row>
-    <row r="23" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A23" s="8" t="s">
         <v>55</v>
       </c>
@@ -6245,9 +6177,7 @@
       <c r="BI23" s="13">
         <v>432949</v>
       </c>
-      <c r="BJ23">
-        <v>18.190000000000001</v>
-      </c>
+      <c r="BJ23" s="11"/>
       <c r="BK23" s="11"/>
       <c r="BL23" s="11"/>
       <c r="BM23" s="11"/>
@@ -6286,9 +6216,8 @@
       <c r="CT23" s="11"/>
       <c r="CU23" s="11"/>
       <c r="CV23" s="11"/>
-      <c r="CW23" s="11"/>
     </row>
-    <row r="24" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A24" s="8" t="s">
         <v>56</v>
       </c>
@@ -6472,9 +6401,7 @@
       <c r="BI24" s="13">
         <v>393731</v>
       </c>
-      <c r="BJ24">
-        <v>11.15</v>
-      </c>
+      <c r="BJ24" s="11"/>
       <c r="BK24" s="11"/>
       <c r="BL24" s="11"/>
       <c r="BM24" s="11"/>
@@ -6513,9 +6440,8 @@
       <c r="CT24" s="11"/>
       <c r="CU24" s="11"/>
       <c r="CV24" s="11"/>
-      <c r="CW24" s="11"/>
     </row>
-    <row r="25" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A25" s="8" t="s">
         <v>57</v>
       </c>
@@ -6699,9 +6625,7 @@
       <c r="BI25" s="13">
         <v>106253</v>
       </c>
-      <c r="BJ25">
-        <v>13.54</v>
-      </c>
+      <c r="BJ25" s="11"/>
       <c r="BK25" s="11"/>
       <c r="BL25" s="11"/>
       <c r="BM25" s="11"/>
@@ -6740,9 +6664,8 @@
       <c r="CT25" s="11"/>
       <c r="CU25" s="11"/>
       <c r="CV25" s="11"/>
-      <c r="CW25" s="11"/>
     </row>
-    <row r="26" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A26" s="8" t="s">
         <v>58</v>
       </c>
@@ -6926,9 +6849,7 @@
       <c r="BI26" s="13">
         <v>783997</v>
       </c>
-      <c r="BJ26">
-        <v>12.21</v>
-      </c>
+      <c r="BJ26" s="11"/>
       <c r="BK26" s="11"/>
       <c r="BL26" s="11"/>
       <c r="BM26" s="11"/>
@@ -6967,9 +6888,8 @@
       <c r="CT26" s="11"/>
       <c r="CU26" s="11"/>
       <c r="CV26" s="11"/>
-      <c r="CW26" s="11"/>
     </row>
-    <row r="27" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A27" s="8" t="s">
         <v>59</v>
       </c>
@@ -7153,9 +7073,7 @@
       <c r="BI27" s="13">
         <v>418227</v>
       </c>
-      <c r="BJ27">
-        <v>10.57</v>
-      </c>
+      <c r="BJ27" s="11"/>
       <c r="BK27" s="11"/>
       <c r="BL27" s="11"/>
       <c r="BM27" s="11"/>
@@ -7194,9 +7112,8 @@
       <c r="CT27" s="11"/>
       <c r="CU27" s="11"/>
       <c r="CV27" s="11"/>
-      <c r="CW27" s="11"/>
     </row>
-    <row r="28" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A28" s="8" t="s">
         <v>60</v>
       </c>
@@ -7380,9 +7297,7 @@
       <c r="BI28" s="13">
         <v>530235</v>
       </c>
-      <c r="BJ28">
-        <v>9.64</v>
-      </c>
+      <c r="BJ28" s="11"/>
       <c r="BK28" s="11"/>
       <c r="BL28" s="11"/>
       <c r="BM28" s="11"/>
@@ -7421,9 +7336,8 @@
       <c r="CT28" s="11"/>
       <c r="CU28" s="11"/>
       <c r="CV28" s="11"/>
-      <c r="CW28" s="11"/>
     </row>
-    <row r="29" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A29" s="8" t="s">
         <v>61</v>
       </c>
@@ -7607,9 +7521,7 @@
       <c r="BI29" s="13">
         <v>195186</v>
       </c>
-      <c r="BJ29">
-        <v>9.1300000000000008</v>
-      </c>
+      <c r="BJ29" s="11"/>
       <c r="BK29" s="11"/>
       <c r="BL29" s="11"/>
       <c r="BM29" s="11"/>
@@ -7648,9 +7560,8 @@
       <c r="CT29" s="11"/>
       <c r="CU29" s="11"/>
       <c r="CV29" s="11"/>
-      <c r="CW29" s="11"/>
     </row>
-    <row r="30" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A30" s="8" t="s">
         <v>62</v>
       </c>
@@ -7834,9 +7745,7 @@
       <c r="BI30" s="13">
         <v>105697</v>
       </c>
-      <c r="BJ30">
-        <v>9.1300000000000008</v>
-      </c>
+      <c r="BJ30" s="11"/>
       <c r="BK30" s="11"/>
       <c r="BL30" s="11"/>
       <c r="BM30" s="11"/>
@@ -7875,9 +7784,8 @@
       <c r="CT30" s="11"/>
       <c r="CU30" s="11"/>
       <c r="CV30" s="11"/>
-      <c r="CW30" s="11"/>
     </row>
-    <row r="31" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A31" s="8" t="s">
         <v>63</v>
       </c>
@@ -8061,9 +7969,7 @@
       <c r="BI31" s="13">
         <v>696311</v>
       </c>
-      <c r="BJ31">
-        <v>9.43</v>
-      </c>
+      <c r="BJ31" s="11"/>
       <c r="BK31" s="11"/>
       <c r="BL31" s="11"/>
       <c r="BM31" s="11"/>
@@ -8102,9 +8008,8 @@
       <c r="CT31" s="11"/>
       <c r="CU31" s="11"/>
       <c r="CV31" s="11"/>
-      <c r="CW31" s="11"/>
     </row>
-    <row r="32" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A32" s="8" t="s">
         <v>64</v>
       </c>
@@ -8288,9 +8193,7 @@
       <c r="BI32" s="13">
         <v>78903</v>
       </c>
-      <c r="BJ32">
-        <v>8.5299999999999994</v>
-      </c>
+      <c r="BJ32" s="11"/>
       <c r="BK32" s="11"/>
       <c r="BL32" s="11"/>
       <c r="BM32" s="11"/>
@@ -8329,9 +8232,8 @@
       <c r="CT32" s="11"/>
       <c r="CU32" s="11"/>
       <c r="CV32" s="11"/>
-      <c r="CW32" s="11"/>
     </row>
-    <row r="33" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A33" s="8" t="s">
         <v>65</v>
       </c>
@@ -8515,9 +8417,7 @@
       <c r="BI33" s="13">
         <v>169241</v>
       </c>
-      <c r="BJ33">
-        <v>8.9700000000000006</v>
-      </c>
+      <c r="BJ33" s="11"/>
       <c r="BK33" s="11"/>
       <c r="BL33" s="11"/>
       <c r="BM33" s="11"/>
@@ -8556,9 +8456,8 @@
       <c r="CT33" s="11"/>
       <c r="CU33" s="11"/>
       <c r="CV33" s="11"/>
-      <c r="CW33" s="11"/>
     </row>
-    <row r="34" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A34" s="8" t="s">
         <v>66</v>
       </c>
@@ -8742,9 +8641,7 @@
       <c r="BI34" s="13">
         <v>105115</v>
       </c>
-      <c r="BJ34">
-        <v>16.63</v>
-      </c>
+      <c r="BJ34" s="11"/>
       <c r="BK34" s="11"/>
       <c r="BL34" s="11"/>
       <c r="BM34" s="11"/>
@@ -8783,9 +8680,8 @@
       <c r="CT34" s="11"/>
       <c r="CU34" s="11"/>
       <c r="CV34" s="11"/>
-      <c r="CW34" s="11"/>
     </row>
-    <row r="35" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A35" s="8" t="s">
         <v>67</v>
       </c>
@@ -8969,9 +8865,7 @@
       <c r="BI35" s="13">
         <v>563131</v>
       </c>
-      <c r="BJ35">
-        <v>13.63</v>
-      </c>
+      <c r="BJ35" s="11"/>
       <c r="BK35" s="11"/>
       <c r="BL35" s="11"/>
       <c r="BM35" s="11"/>
@@ -9010,9 +8904,8 @@
       <c r="CT35" s="11"/>
       <c r="CU35" s="11"/>
       <c r="CV35" s="11"/>
-      <c r="CW35" s="11"/>
     </row>
-    <row r="36" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A36" s="8" t="s">
         <v>68</v>
       </c>
@@ -9196,9 +9089,7 @@
       <c r="BI36" s="13">
         <v>132449</v>
       </c>
-      <c r="BJ36">
-        <v>9.33</v>
-      </c>
+      <c r="BJ36" s="11"/>
       <c r="BK36" s="11"/>
       <c r="BL36" s="11"/>
       <c r="BM36" s="11"/>
@@ -9237,9 +9128,8 @@
       <c r="CT36" s="11"/>
       <c r="CU36" s="11"/>
       <c r="CV36" s="11"/>
-      <c r="CW36" s="11"/>
     </row>
-    <row r="37" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A37" s="8" t="s">
         <v>69</v>
       </c>
@@ -9423,9 +9313,7 @@
       <c r="BI37" s="13">
         <v>173543</v>
       </c>
-      <c r="BJ37">
-        <v>8.33</v>
-      </c>
+      <c r="BJ37" s="11"/>
       <c r="BK37" s="11"/>
       <c r="BL37" s="11"/>
       <c r="BM37" s="11"/>
@@ -9464,9 +9352,8 @@
       <c r="CT37" s="11"/>
       <c r="CU37" s="11"/>
       <c r="CV37" s="11"/>
-      <c r="CW37" s="11"/>
     </row>
-    <row r="38" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A38" s="8" t="s">
         <v>70</v>
       </c>
@@ -9650,9 +9537,7 @@
       <c r="BI38" s="13">
         <v>1138582</v>
       </c>
-      <c r="BJ38">
-        <v>14.87</v>
-      </c>
+      <c r="BJ38" s="11"/>
       <c r="BK38" s="11"/>
       <c r="BL38" s="11"/>
       <c r="BM38" s="11"/>
@@ -9691,9 +9576,8 @@
       <c r="CT38" s="11"/>
       <c r="CU38" s="11"/>
       <c r="CV38" s="11"/>
-      <c r="CW38" s="11"/>
     </row>
-    <row r="39" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A39" s="8" t="s">
         <v>71</v>
       </c>
@@ -9877,9 +9761,7 @@
       <c r="BI39" s="13">
         <v>875824</v>
       </c>
-      <c r="BJ39">
-        <v>9.44</v>
-      </c>
+      <c r="BJ39" s="11"/>
       <c r="BK39" s="11"/>
       <c r="BL39" s="11"/>
       <c r="BM39" s="11"/>
@@ -9918,9 +9800,8 @@
       <c r="CT39" s="11"/>
       <c r="CU39" s="11"/>
       <c r="CV39" s="11"/>
-      <c r="CW39" s="11"/>
     </row>
-    <row r="40" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A40" s="8" t="s">
         <v>72</v>
       </c>
@@ -10104,9 +9985,7 @@
       <c r="BI40" s="13">
         <v>298943</v>
       </c>
-      <c r="BJ40">
-        <v>7.63</v>
-      </c>
+      <c r="BJ40" s="11"/>
       <c r="BK40" s="11"/>
       <c r="BL40" s="11"/>
       <c r="BM40" s="11"/>
@@ -10145,9 +10024,8 @@
       <c r="CT40" s="11"/>
       <c r="CU40" s="11"/>
       <c r="CV40" s="11"/>
-      <c r="CW40" s="11"/>
     </row>
-    <row r="41" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A41" s="8" t="s">
         <v>73</v>
       </c>
@@ -10331,9 +10209,7 @@
       <c r="BI41" s="13">
         <v>255441</v>
       </c>
-      <c r="BJ41">
-        <v>8.82</v>
-      </c>
+      <c r="BJ41" s="11"/>
       <c r="BK41" s="11"/>
       <c r="BL41" s="11"/>
       <c r="BM41" s="11"/>
@@ -10372,9 +10248,8 @@
       <c r="CT41" s="11"/>
       <c r="CU41" s="11"/>
       <c r="CV41" s="11"/>
-      <c r="CW41" s="11"/>
     </row>
-    <row r="42" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A42" s="8" t="s">
         <v>74</v>
       </c>
@@ -10558,9 +10433,7 @@
       <c r="BI42" s="13">
         <v>891688</v>
       </c>
-      <c r="BJ42">
-        <v>9.6999999999999993</v>
-      </c>
+      <c r="BJ42" s="11"/>
       <c r="BK42" s="11"/>
       <c r="BL42" s="11"/>
       <c r="BM42" s="11"/>
@@ -10599,9 +10472,8 @@
       <c r="CT42" s="11"/>
       <c r="CU42" s="11"/>
       <c r="CV42" s="11"/>
-      <c r="CW42" s="11"/>
     </row>
-    <row r="43" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A43" s="8" t="s">
         <v>75</v>
       </c>
@@ -10785,9 +10657,7 @@
       <c r="BI43" s="13">
         <v>60993</v>
       </c>
-      <c r="BJ43">
-        <v>18.54</v>
-      </c>
+      <c r="BJ43" s="11"/>
       <c r="BK43" s="11"/>
       <c r="BL43" s="11"/>
       <c r="BM43" s="11"/>
@@ -10826,9 +10696,8 @@
       <c r="CT43" s="11"/>
       <c r="CU43" s="11"/>
       <c r="CV43" s="11"/>
-      <c r="CW43" s="11"/>
     </row>
-    <row r="44" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A44" s="8" t="s">
         <v>76</v>
       </c>
@@ -11012,9 +10881,7 @@
       <c r="BI44" s="13">
         <v>365358</v>
       </c>
-      <c r="BJ44">
-        <v>9.9</v>
-      </c>
+      <c r="BJ44" s="11"/>
       <c r="BK44" s="11"/>
       <c r="BL44" s="11"/>
       <c r="BM44" s="11"/>
@@ -11053,9 +10920,8 @@
       <c r="CT44" s="11"/>
       <c r="CU44" s="11"/>
       <c r="CV44" s="11"/>
-      <c r="CW44" s="11"/>
     </row>
-    <row r="45" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A45" s="8" t="s">
         <v>77</v>
       </c>
@@ -11239,9 +11105,7 @@
       <c r="BI45" s="13">
         <v>74163</v>
       </c>
-      <c r="BJ45">
-        <v>10.06</v>
-      </c>
+      <c r="BJ45" s="11"/>
       <c r="BK45" s="11"/>
       <c r="BL45" s="11"/>
       <c r="BM45" s="11"/>
@@ -11280,9 +11144,8 @@
       <c r="CT45" s="11"/>
       <c r="CU45" s="11"/>
       <c r="CV45" s="11"/>
-      <c r="CW45" s="11"/>
     </row>
-    <row r="46" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A46" s="8" t="s">
         <v>78</v>
       </c>
@@ -11466,9 +11329,7 @@
       <c r="BI46" s="13">
         <v>524772</v>
       </c>
-      <c r="BJ46">
-        <v>9.52</v>
-      </c>
+      <c r="BJ46" s="11"/>
       <c r="BK46" s="11"/>
       <c r="BL46" s="11"/>
       <c r="BM46" s="11"/>
@@ -11507,9 +11368,8 @@
       <c r="CT46" s="11"/>
       <c r="CU46" s="11"/>
       <c r="CV46" s="11"/>
-      <c r="CW46" s="11"/>
     </row>
-    <row r="47" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A47" s="8" t="s">
         <v>79</v>
       </c>
@@ -11693,9 +11553,7 @@
       <c r="BI47" s="13">
         <v>1767320</v>
       </c>
-      <c r="BJ47">
-        <v>8.36</v>
-      </c>
+      <c r="BJ47" s="11"/>
       <c r="BK47" s="11"/>
       <c r="BL47" s="11"/>
       <c r="BM47" s="11"/>
@@ -11734,9 +11592,8 @@
       <c r="CT47" s="11"/>
       <c r="CU47" s="11"/>
       <c r="CV47" s="11"/>
-      <c r="CW47" s="11"/>
     </row>
-    <row r="48" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A48" s="8" t="s">
         <v>80</v>
       </c>
@@ -11920,9 +11777,7 @@
       <c r="BI48" s="13">
         <v>187767</v>
       </c>
-      <c r="BJ48">
-        <v>8.27</v>
-      </c>
+      <c r="BJ48" s="11"/>
       <c r="BK48" s="11"/>
       <c r="BL48" s="11"/>
       <c r="BM48" s="11"/>
@@ -11961,9 +11816,8 @@
       <c r="CT48" s="11"/>
       <c r="CU48" s="11"/>
       <c r="CV48" s="11"/>
-      <c r="CW48" s="11"/>
     </row>
-    <row r="49" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A49" s="8" t="s">
         <v>81</v>
       </c>
@@ -12147,9 +12001,7 @@
       <c r="BI49" s="13">
         <v>571741</v>
       </c>
-      <c r="BJ49">
-        <v>16.329999999999998</v>
-      </c>
+      <c r="BJ49" s="11"/>
       <c r="BK49" s="11"/>
       <c r="BL49" s="11"/>
       <c r="BM49" s="11"/>
@@ -12188,9 +12040,8 @@
       <c r="CT49" s="11"/>
       <c r="CU49" s="11"/>
       <c r="CV49" s="11"/>
-      <c r="CW49" s="11"/>
     </row>
-    <row r="50" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A50" s="8" t="s">
         <v>82</v>
       </c>
@@ -12374,9 +12225,7 @@
       <c r="BI50" s="13">
         <v>47847</v>
       </c>
-      <c r="BJ50">
-        <v>9.16</v>
-      </c>
+      <c r="BJ50" s="11"/>
       <c r="BK50" s="11"/>
       <c r="BL50" s="11"/>
       <c r="BM50" s="11"/>
@@ -12415,9 +12264,8 @@
       <c r="CT50" s="11"/>
       <c r="CU50" s="11"/>
       <c r="CV50" s="11"/>
-      <c r="CW50" s="11"/>
     </row>
-    <row r="51" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A51" s="8" t="s">
         <v>83</v>
       </c>
@@ -12601,9 +12449,7 @@
       <c r="BI51" s="13">
         <v>496532</v>
       </c>
-      <c r="BJ51">
-        <v>8.33</v>
-      </c>
+      <c r="BJ51" s="11"/>
       <c r="BK51" s="11"/>
       <c r="BL51" s="11"/>
       <c r="BM51" s="11"/>
@@ -12642,9 +12488,8 @@
       <c r="CT51" s="11"/>
       <c r="CU51" s="11"/>
       <c r="CV51" s="11"/>
-      <c r="CW51" s="11"/>
     </row>
-    <row r="52" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A52" s="8" t="s">
         <v>84</v>
       </c>
@@ -12828,9 +12673,7 @@
       <c r="BI52" s="13">
         <v>447185</v>
       </c>
-      <c r="BJ52">
-        <v>10.82</v>
-      </c>
+      <c r="BJ52" s="11"/>
       <c r="BK52" s="11"/>
       <c r="BL52" s="11"/>
       <c r="BM52" s="11"/>
@@ -12869,9 +12712,8 @@
       <c r="CT52" s="11"/>
       <c r="CU52" s="11"/>
       <c r="CV52" s="11"/>
-      <c r="CW52" s="11"/>
     </row>
-    <row r="53" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A53" s="8" t="s">
         <v>85</v>
       </c>
@@ -13055,9 +12897,7 @@
       <c r="BI53" s="13">
         <v>156114</v>
       </c>
-      <c r="BJ53">
-        <v>8.75</v>
-      </c>
+      <c r="BJ53" s="11"/>
       <c r="BK53" s="11"/>
       <c r="BL53" s="11"/>
       <c r="BM53" s="11"/>
@@ -13096,9 +12936,8 @@
       <c r="CT53" s="11"/>
       <c r="CU53" s="11"/>
       <c r="CV53" s="11"/>
-      <c r="CW53" s="11"/>
     </row>
-    <row r="54" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A54" s="8" t="s">
         <v>86</v>
       </c>
@@ -13282,9 +13121,7 @@
       <c r="BI54" s="13">
         <v>53913</v>
       </c>
-      <c r="BJ54">
-        <v>8.27</v>
-      </c>
+      <c r="BJ54" s="11"/>
       <c r="BK54" s="11"/>
       <c r="BL54" s="11"/>
       <c r="BM54" s="11"/>
@@ -13323,9 +13160,8 @@
       <c r="CT54" s="11"/>
       <c r="CU54" s="11"/>
       <c r="CV54" s="11"/>
-      <c r="CW54" s="11"/>
     </row>
-    <row r="55" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A55" s="8" t="s">
         <v>87</v>
       </c>
@@ -13509,9 +13345,7 @@
       <c r="BI55" s="13">
         <v>21037214</v>
       </c>
-      <c r="BJ55">
-        <v>10.59</v>
-      </c>
+      <c r="BJ55" s="11"/>
       <c r="BK55" s="11"/>
       <c r="BL55" s="11"/>
       <c r="BM55" s="11"/>
@@ -13550,7 +13384,6 @@
       <c r="CT55" s="11"/>
       <c r="CU55" s="11"/>
       <c r="CV55" s="11"/>
-      <c r="CW55" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13560,35 +13393,34 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:CW55"/>
+  <dimension ref="A1:CV55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="AZ4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="BI4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="BH1" sqref="BH1:BH1048576"/>
       <selection pane="topRight" activeCell="BH1" sqref="BH1:BH1048576"/>
       <selection pane="bottomLeft" activeCell="BH1" sqref="BH1:BH1048576"/>
-      <selection pane="bottomRight" activeCell="BJ3" sqref="BJ3:BJ55"/>
+      <selection pane="bottomRight" activeCell="BJ1" sqref="BJ1:BJ1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="6.125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="10.125" style="10" customWidth="1"/>
-    <col min="3" max="6" width="10.125" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="61" width="11.125" style="10" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="27.375" style="10" bestFit="1" customWidth="1"/>
-    <col min="63" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="6.140625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="10" customWidth="1"/>
+    <col min="3" max="6" width="10.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="61" width="11.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="62" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:101" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:100" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A1" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:101" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:100" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A2" s="8"/>
     </row>
-    <row r="3" spans="1:101" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:100" s="8" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
@@ -13772,11 +13604,8 @@
       <c r="BI3" s="8">
         <v>2019</v>
       </c>
-      <c r="BJ3" s="14" t="s">
-        <v>88</v>
-      </c>
     </row>
-    <row r="4" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A4" s="8" t="s">
         <v>36</v>
       </c>
@@ -13960,9 +13789,7 @@
       <c r="BI4" s="13">
         <v>56959</v>
       </c>
-      <c r="BJ4" s="15">
-        <v>19.82</v>
-      </c>
+      <c r="BJ4" s="11"/>
       <c r="BK4" s="11"/>
       <c r="BL4" s="11"/>
       <c r="BM4" s="11"/>
@@ -14001,9 +13828,8 @@
       <c r="CT4" s="11"/>
       <c r="CU4" s="11"/>
       <c r="CV4" s="11"/>
-      <c r="CW4" s="11"/>
     </row>
-    <row r="5" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A5" s="8" t="s">
         <v>37</v>
       </c>
@@ -14187,9 +14013,7 @@
       <c r="BI5" s="13">
         <v>257727</v>
       </c>
-      <c r="BJ5" s="15">
-        <v>9.84</v>
-      </c>
+      <c r="BJ5" s="11"/>
       <c r="BK5" s="11"/>
       <c r="BL5" s="11"/>
       <c r="BM5" s="11"/>
@@ -14228,9 +14052,8 @@
       <c r="CT5" s="11"/>
       <c r="CU5" s="11"/>
       <c r="CV5" s="11"/>
-      <c r="CW5" s="11"/>
     </row>
-    <row r="6" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A6" s="8" t="s">
         <v>38</v>
       </c>
@@ -14414,9 +14237,7 @@
       <c r="BI6" s="13">
         <v>180162</v>
       </c>
-      <c r="BJ6" s="14">
-        <v>8.32</v>
-      </c>
+      <c r="BJ6" s="11"/>
       <c r="BK6" s="11"/>
       <c r="BL6" s="11"/>
       <c r="BM6" s="11"/>
@@ -14455,9 +14276,8 @@
       <c r="CT6" s="11"/>
       <c r="CU6" s="11"/>
       <c r="CV6" s="11"/>
-      <c r="CW6" s="11"/>
     </row>
-    <row r="7" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A7" s="8" t="s">
         <v>39</v>
       </c>
@@ -14641,9 +14461,7 @@
       <c r="BI7" s="13">
         <v>347401</v>
       </c>
-      <c r="BJ7" s="15">
-        <v>10.44</v>
-      </c>
+      <c r="BJ7" s="11"/>
       <c r="BK7" s="11"/>
       <c r="BL7" s="11"/>
       <c r="BM7" s="11"/>
@@ -14682,9 +14500,8 @@
       <c r="CT7" s="11"/>
       <c r="CU7" s="11"/>
       <c r="CV7" s="11"/>
-      <c r="CW7" s="11"/>
     </row>
-    <row r="8" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A8" s="8" t="s">
         <v>40</v>
       </c>
@@ -14868,9 +14685,7 @@
       <c r="BI8" s="13">
         <v>1468088</v>
       </c>
-      <c r="BJ8" s="14">
-        <v>18</v>
-      </c>
+      <c r="BJ8" s="11"/>
       <c r="BK8" s="11"/>
       <c r="BL8" s="11"/>
       <c r="BM8" s="11"/>
@@ -14909,9 +14724,8 @@
       <c r="CT8" s="11"/>
       <c r="CU8" s="11"/>
       <c r="CV8" s="11"/>
-      <c r="CW8" s="11"/>
     </row>
-    <row r="9" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A9" s="8" t="s">
         <v>41</v>
       </c>
@@ -15095,9 +14909,7 @@
       <c r="BI9" s="13">
         <v>300962</v>
       </c>
-      <c r="BJ9">
-        <v>10.27</v>
-      </c>
+      <c r="BJ9" s="11"/>
       <c r="BK9" s="11"/>
       <c r="BL9" s="11"/>
       <c r="BM9" s="11"/>
@@ -15136,9 +14948,8 @@
       <c r="CT9" s="11"/>
       <c r="CU9" s="11"/>
       <c r="CV9" s="11"/>
-      <c r="CW9" s="11"/>
     </row>
-    <row r="10" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A10" s="8" t="s">
         <v>42</v>
       </c>
@@ -15322,9 +15133,7 @@
       <c r="BI10" s="13">
         <v>187749</v>
       </c>
-      <c r="BJ10">
-        <v>19.13</v>
-      </c>
+      <c r="BJ10" s="11"/>
       <c r="BK10" s="11"/>
       <c r="BL10" s="11"/>
       <c r="BM10" s="11"/>
@@ -15363,9 +15172,8 @@
       <c r="CT10" s="11"/>
       <c r="CU10" s="11"/>
       <c r="CV10" s="11"/>
-      <c r="CW10" s="11"/>
     </row>
-    <row r="11" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A11" s="8" t="s">
         <v>43</v>
       </c>
@@ -15549,9 +15357,7 @@
       <c r="BI11" s="13">
         <v>101339</v>
       </c>
-      <c r="BJ11">
-        <v>11.9</v>
-      </c>
+      <c r="BJ11" s="11"/>
       <c r="BK11" s="11"/>
       <c r="BL11" s="11"/>
       <c r="BM11" s="11"/>
@@ -15590,9 +15396,8 @@
       <c r="CT11" s="11"/>
       <c r="CU11" s="11"/>
       <c r="CV11" s="11"/>
-      <c r="CW11" s="11"/>
     </row>
-    <row r="12" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A12" s="8" t="s">
         <v>44</v>
       </c>
@@ -15776,9 +15581,7 @@
       <c r="BI12" s="13">
         <v>61047</v>
       </c>
-      <c r="BJ12">
-        <v>10.24</v>
-      </c>
+      <c r="BJ12" s="11"/>
       <c r="BK12" s="11"/>
       <c r="BL12" s="11"/>
       <c r="BM12" s="11"/>
@@ -15817,9 +15620,8 @@
       <c r="CT12" s="11"/>
       <c r="CU12" s="11"/>
       <c r="CV12" s="11"/>
-      <c r="CW12" s="11"/>
     </row>
-    <row r="13" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A13" s="8" t="s">
         <v>45</v>
       </c>
@@ -16003,9 +15805,7 @@
       <c r="BI13" s="13">
         <v>966489</v>
       </c>
-      <c r="BJ13">
-        <v>10.06</v>
-      </c>
+      <c r="BJ13" s="11"/>
       <c r="BK13" s="11"/>
       <c r="BL13" s="11"/>
       <c r="BM13" s="11"/>
@@ -16044,9 +15844,8 @@
       <c r="CT13" s="11"/>
       <c r="CU13" s="11"/>
       <c r="CV13" s="11"/>
-      <c r="CW13" s="11"/>
     </row>
-    <row r="14" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A14" s="8" t="s">
         <v>46</v>
       </c>
@@ -16230,9 +16029,7 @@
       <c r="BI14" s="13">
         <v>539326</v>
       </c>
-      <c r="BJ14">
-        <v>9.93</v>
-      </c>
+      <c r="BJ14" s="11"/>
       <c r="BK14" s="11"/>
       <c r="BL14" s="11"/>
       <c r="BM14" s="11"/>
@@ -16271,9 +16068,8 @@
       <c r="CT14" s="11"/>
       <c r="CU14" s="11"/>
       <c r="CV14" s="11"/>
-      <c r="CW14" s="11"/>
     </row>
-    <row r="15" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A15" s="8" t="s">
         <v>47</v>
       </c>
@@ -16457,9 +16253,7 @@
       <c r="BI15" s="13">
         <v>42895</v>
       </c>
-      <c r="BJ15">
-        <v>27.55</v>
-      </c>
+      <c r="BJ15" s="11"/>
       <c r="BK15" s="11"/>
       <c r="BL15" s="11"/>
       <c r="BM15" s="11"/>
@@ -16498,9 +16292,8 @@
       <c r="CT15" s="11"/>
       <c r="CU15" s="11"/>
       <c r="CV15" s="11"/>
-      <c r="CW15" s="11"/>
     </row>
-    <row r="16" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A16" s="8" t="s">
         <v>48</v>
       </c>
@@ -16684,9 +16477,7 @@
       <c r="BI16" s="13">
         <v>201061</v>
       </c>
-      <c r="BJ16">
-        <v>8.9700000000000006</v>
-      </c>
+      <c r="BJ16" s="11"/>
       <c r="BK16" s="11"/>
       <c r="BL16" s="11"/>
       <c r="BM16" s="11"/>
@@ -16725,9 +16516,8 @@
       <c r="CT16" s="11"/>
       <c r="CU16" s="11"/>
       <c r="CV16" s="11"/>
-      <c r="CW16" s="11"/>
     </row>
-    <row r="17" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A17" s="8" t="s">
         <v>49</v>
       </c>
@@ -16911,9 +16701,7 @@
       <c r="BI17" s="13">
         <v>92502</v>
       </c>
-      <c r="BJ17">
-        <v>7.99</v>
-      </c>
+      <c r="BJ17" s="11"/>
       <c r="BK17" s="11"/>
       <c r="BL17" s="11"/>
       <c r="BM17" s="11"/>
@@ -16952,9 +16740,8 @@
       <c r="CT17" s="11"/>
       <c r="CU17" s="11"/>
       <c r="CV17" s="11"/>
-      <c r="CW17" s="11"/>
     </row>
-    <row r="18" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A18" s="8" t="s">
         <v>50</v>
       </c>
@@ -17138,9 +16925,7 @@
       <c r="BI18" s="13">
         <v>808854</v>
       </c>
-      <c r="BJ18">
-        <v>9.75</v>
-      </c>
+      <c r="BJ18" s="11"/>
       <c r="BK18" s="11"/>
       <c r="BL18" s="11"/>
       <c r="BM18" s="11"/>
@@ -17179,9 +16964,8 @@
       <c r="CT18" s="11"/>
       <c r="CU18" s="11"/>
       <c r="CV18" s="11"/>
-      <c r="CW18" s="11"/>
     </row>
-    <row r="19" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A19" s="8" t="s">
         <v>51</v>
       </c>
@@ -17365,9 +17149,7 @@
       <c r="BI19" s="13">
         <v>366790</v>
       </c>
-      <c r="BJ19">
-        <v>9.92</v>
-      </c>
+      <c r="BJ19" s="11"/>
       <c r="BK19" s="11"/>
       <c r="BL19" s="11"/>
       <c r="BM19" s="11"/>
@@ -17406,9 +17188,8 @@
       <c r="CT19" s="11"/>
       <c r="CU19" s="11"/>
       <c r="CV19" s="11"/>
-      <c r="CW19" s="11"/>
     </row>
-    <row r="20" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A20" s="8" t="s">
         <v>52</v>
       </c>
@@ -17592,9 +17373,7 @@
       <c r="BI20" s="13">
         <v>218734</v>
       </c>
-      <c r="BJ20">
-        <v>10.38</v>
-      </c>
+      <c r="BJ20" s="11"/>
       <c r="BK20" s="11"/>
       <c r="BL20" s="11"/>
       <c r="BM20" s="11"/>
@@ -17633,9 +17412,8 @@
       <c r="CT20" s="11"/>
       <c r="CU20" s="11"/>
       <c r="CV20" s="11"/>
-      <c r="CW20" s="11"/>
     </row>
-    <row r="21" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A21" s="8" t="s">
         <v>53</v>
       </c>
@@ -17819,9 +17597,7 @@
       <c r="BI21" s="13">
         <v>260106</v>
       </c>
-      <c r="BJ21">
-        <v>8.58</v>
-      </c>
+      <c r="BJ21" s="11"/>
       <c r="BK21" s="11"/>
       <c r="BL21" s="11"/>
       <c r="BM21" s="11"/>
@@ -17860,9 +17636,8 @@
       <c r="CT21" s="11"/>
       <c r="CU21" s="11"/>
       <c r="CV21" s="11"/>
-      <c r="CW21" s="11"/>
     </row>
-    <row r="22" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A22" s="8" t="s">
         <v>54</v>
       </c>
@@ -18046,9 +17821,7 @@
       <c r="BI22" s="13">
         <v>259841</v>
       </c>
-      <c r="BJ22">
-        <v>7.51</v>
-      </c>
+      <c r="BJ22" s="11"/>
       <c r="BK22" s="11"/>
       <c r="BL22" s="11"/>
       <c r="BM22" s="11"/>
@@ -18087,9 +17860,8 @@
       <c r="CT22" s="11"/>
       <c r="CU22" s="11"/>
       <c r="CV22" s="11"/>
-      <c r="CW22" s="11"/>
     </row>
-    <row r="23" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A23" s="8" t="s">
         <v>55</v>
       </c>
@@ -18273,9 +18045,7 @@
       <c r="BI23" s="13">
         <v>409658</v>
       </c>
-      <c r="BJ23">
-        <v>18.190000000000001</v>
-      </c>
+      <c r="BJ23" s="11"/>
       <c r="BK23" s="11"/>
       <c r="BL23" s="11"/>
       <c r="BM23" s="11"/>
@@ -18314,9 +18084,8 @@
       <c r="CT23" s="11"/>
       <c r="CU23" s="11"/>
       <c r="CV23" s="11"/>
-      <c r="CW23" s="11"/>
     </row>
-    <row r="24" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A24" s="8" t="s">
         <v>56</v>
       </c>
@@ -18500,9 +18269,7 @@
       <c r="BI24" s="13">
         <v>396546</v>
       </c>
-      <c r="BJ24">
-        <v>11.15</v>
-      </c>
+      <c r="BJ24" s="11"/>
       <c r="BK24" s="11"/>
       <c r="BL24" s="11"/>
       <c r="BM24" s="11"/>
@@ -18541,9 +18308,8 @@
       <c r="CT24" s="11"/>
       <c r="CU24" s="11"/>
       <c r="CV24" s="11"/>
-      <c r="CW24" s="11"/>
     </row>
-    <row r="25" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A25" s="8" t="s">
         <v>57</v>
       </c>
@@ -18727,9 +18493,7 @@
       <c r="BI25" s="13">
         <v>67625</v>
       </c>
-      <c r="BJ25">
-        <v>13.54</v>
-      </c>
+      <c r="BJ25" s="11"/>
       <c r="BK25" s="11"/>
       <c r="BL25" s="11"/>
       <c r="BM25" s="11"/>
@@ -18768,9 +18532,8 @@
       <c r="CT25" s="11"/>
       <c r="CU25" s="11"/>
       <c r="CV25" s="11"/>
-      <c r="CW25" s="11"/>
     </row>
-    <row r="26" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A26" s="8" t="s">
         <v>58</v>
       </c>
@@ -18954,9 +18717,7 @@
       <c r="BI26" s="13">
         <v>612415</v>
       </c>
-      <c r="BJ26">
-        <v>12.21</v>
-      </c>
+      <c r="BJ26" s="11"/>
       <c r="BK26" s="11"/>
       <c r="BL26" s="11"/>
       <c r="BM26" s="11"/>
@@ -18995,9 +18756,8 @@
       <c r="CT26" s="11"/>
       <c r="CU26" s="11"/>
       <c r="CV26" s="11"/>
-      <c r="CW26" s="11"/>
     </row>
-    <row r="27" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A27" s="8" t="s">
         <v>59</v>
       </c>
@@ -19181,9 +18941,7 @@
       <c r="BI27" s="13">
         <v>356842</v>
       </c>
-      <c r="BJ27">
-        <v>10.57</v>
-      </c>
+      <c r="BJ27" s="11"/>
       <c r="BK27" s="11"/>
       <c r="BL27" s="11"/>
       <c r="BM27" s="11"/>
@@ -19222,9 +18980,8 @@
       <c r="CT27" s="11"/>
       <c r="CU27" s="11"/>
       <c r="CV27" s="11"/>
-      <c r="CW27" s="11"/>
     </row>
-    <row r="28" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A28" s="8" t="s">
         <v>60</v>
       </c>
@@ -19408,9 +19165,7 @@
       <c r="BI28" s="13">
         <v>407111</v>
       </c>
-      <c r="BJ28">
-        <v>9.64</v>
-      </c>
+      <c r="BJ28" s="11"/>
       <c r="BK28" s="11"/>
       <c r="BL28" s="11"/>
       <c r="BM28" s="11"/>
@@ -19449,9 +19204,8 @@
       <c r="CT28" s="11"/>
       <c r="CU28" s="11"/>
       <c r="CV28" s="11"/>
-      <c r="CW28" s="11"/>
     </row>
-    <row r="29" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A29" s="8" t="s">
         <v>61</v>
       </c>
@@ -19635,9 +19389,7 @@
       <c r="BI29" s="13">
         <v>154067</v>
       </c>
-      <c r="BJ29">
-        <v>9.1300000000000008</v>
-      </c>
+      <c r="BJ29" s="11"/>
       <c r="BK29" s="11"/>
       <c r="BL29" s="11"/>
       <c r="BM29" s="11"/>
@@ -19676,9 +19428,8 @@
       <c r="CT29" s="11"/>
       <c r="CU29" s="11"/>
       <c r="CV29" s="11"/>
-      <c r="CW29" s="11"/>
     </row>
-    <row r="30" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A30" s="8" t="s">
         <v>62</v>
       </c>
@@ -19862,9 +19613,7 @@
       <c r="BI30" s="13">
         <v>87001</v>
       </c>
-      <c r="BJ30">
-        <v>9.1300000000000008</v>
-      </c>
+      <c r="BJ30" s="11"/>
       <c r="BK30" s="11"/>
       <c r="BL30" s="11"/>
       <c r="BM30" s="11"/>
@@ -19903,9 +19652,8 @@
       <c r="CT30" s="11"/>
       <c r="CU30" s="11"/>
       <c r="CV30" s="11"/>
-      <c r="CW30" s="11"/>
     </row>
-    <row r="31" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A31" s="8" t="s">
         <v>63</v>
       </c>
@@ -20089,9 +19837,7 @@
       <c r="BI31" s="13">
         <v>577815</v>
       </c>
-      <c r="BJ31">
-        <v>9.43</v>
-      </c>
+      <c r="BJ31" s="11"/>
       <c r="BK31" s="11"/>
       <c r="BL31" s="11"/>
       <c r="BM31" s="11"/>
@@ -20130,9 +19876,8 @@
       <c r="CT31" s="11"/>
       <c r="CU31" s="11"/>
       <c r="CV31" s="11"/>
-      <c r="CW31" s="11"/>
     </row>
-    <row r="32" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A32" s="8" t="s">
         <v>64</v>
       </c>
@@ -20316,9 +20061,7 @@
       <c r="BI32" s="13">
         <v>97206</v>
       </c>
-      <c r="BJ32">
-        <v>8.5299999999999994</v>
-      </c>
+      <c r="BJ32" s="11"/>
       <c r="BK32" s="11"/>
       <c r="BL32" s="11"/>
       <c r="BM32" s="11"/>
@@ -20357,9 +20100,8 @@
       <c r="CT32" s="11"/>
       <c r="CU32" s="11"/>
       <c r="CV32" s="11"/>
-      <c r="CW32" s="11"/>
     </row>
-    <row r="33" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A33" s="8" t="s">
         <v>65</v>
       </c>
@@ -20543,9 +20285,7 @@
       <c r="BI33" s="13">
         <v>148329</v>
       </c>
-      <c r="BJ33">
-        <v>8.9700000000000006</v>
-      </c>
+      <c r="BJ33" s="11"/>
       <c r="BK33" s="11"/>
       <c r="BL33" s="11"/>
       <c r="BM33" s="11"/>
@@ -20584,9 +20324,8 @@
       <c r="CT33" s="11"/>
       <c r="CU33" s="11"/>
       <c r="CV33" s="11"/>
-      <c r="CW33" s="11"/>
     </row>
-    <row r="34" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A34" s="8" t="s">
         <v>66</v>
       </c>
@@ -20770,9 +20509,7 @@
       <c r="BI34" s="13">
         <v>71036</v>
       </c>
-      <c r="BJ34">
-        <v>16.63</v>
-      </c>
+      <c r="BJ34" s="11"/>
       <c r="BK34" s="11"/>
       <c r="BL34" s="11"/>
       <c r="BM34" s="11"/>
@@ -20811,9 +20548,8 @@
       <c r="CT34" s="11"/>
       <c r="CU34" s="11"/>
       <c r="CV34" s="11"/>
-      <c r="CW34" s="11"/>
     </row>
-    <row r="35" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A35" s="8" t="s">
         <v>67</v>
       </c>
@@ -20997,9 +20733,7 @@
       <c r="BI35" s="13">
         <v>557469</v>
       </c>
-      <c r="BJ35">
-        <v>13.63</v>
-      </c>
+      <c r="BJ35" s="11"/>
       <c r="BK35" s="11"/>
       <c r="BL35" s="11"/>
       <c r="BM35" s="11"/>
@@ -21038,9 +20772,8 @@
       <c r="CT35" s="11"/>
       <c r="CU35" s="11"/>
       <c r="CV35" s="11"/>
-      <c r="CW35" s="11"/>
     </row>
-    <row r="36" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A36" s="8" t="s">
         <v>68</v>
       </c>
@@ -21224,9 +20957,7 @@
       <c r="BI36" s="13">
         <v>129204</v>
       </c>
-      <c r="BJ36">
-        <v>9.33</v>
-      </c>
+      <c r="BJ36" s="11"/>
       <c r="BK36" s="11"/>
       <c r="BL36" s="11"/>
       <c r="BM36" s="11"/>
@@ -21265,9 +20996,8 @@
       <c r="CT36" s="11"/>
       <c r="CU36" s="11"/>
       <c r="CV36" s="11"/>
-      <c r="CW36" s="11"/>
     </row>
-    <row r="37" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A37" s="8" t="s">
         <v>69</v>
       </c>
@@ -21451,9 +21181,7 @@
       <c r="BI37" s="13">
         <v>153879</v>
       </c>
-      <c r="BJ37">
-        <v>8.33</v>
-      </c>
+      <c r="BJ37" s="11"/>
       <c r="BK37" s="11"/>
       <c r="BL37" s="11"/>
       <c r="BM37" s="11"/>
@@ -21492,9 +21220,8 @@
       <c r="CT37" s="11"/>
       <c r="CU37" s="11"/>
       <c r="CV37" s="11"/>
-      <c r="CW37" s="11"/>
     </row>
-    <row r="38" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A38" s="8" t="s">
         <v>70</v>
       </c>
@@ -21678,9 +21405,7 @@
       <c r="BI38" s="13">
         <v>1122017</v>
       </c>
-      <c r="BJ38">
-        <v>14.87</v>
-      </c>
+      <c r="BJ38" s="11"/>
       <c r="BK38" s="11"/>
       <c r="BL38" s="11"/>
       <c r="BM38" s="11"/>
@@ -21719,9 +21444,8 @@
       <c r="CT38" s="11"/>
       <c r="CU38" s="11"/>
       <c r="CV38" s="11"/>
-      <c r="CW38" s="11"/>
     </row>
-    <row r="39" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A39" s="8" t="s">
         <v>71</v>
       </c>
@@ -21905,9 +21629,7 @@
       <c r="BI39" s="13">
         <v>678292</v>
       </c>
-      <c r="BJ39">
-        <v>9.44</v>
-      </c>
+      <c r="BJ39" s="11"/>
       <c r="BK39" s="11"/>
       <c r="BL39" s="11"/>
       <c r="BM39" s="11"/>
@@ -21946,9 +21668,8 @@
       <c r="CT39" s="11"/>
       <c r="CU39" s="11"/>
       <c r="CV39" s="11"/>
-      <c r="CW39" s="11"/>
     </row>
-    <row r="40" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A40" s="8" t="s">
         <v>72</v>
       </c>
@@ -22132,9 +21853,7 @@
       <c r="BI40" s="13">
         <v>244838</v>
       </c>
-      <c r="BJ40">
-        <v>7.63</v>
-      </c>
+      <c r="BJ40" s="11"/>
       <c r="BK40" s="11"/>
       <c r="BL40" s="11"/>
       <c r="BM40" s="11"/>
@@ -22173,9 +21892,8 @@
       <c r="CT40" s="11"/>
       <c r="CU40" s="11"/>
       <c r="CV40" s="11"/>
-      <c r="CW40" s="11"/>
     </row>
-    <row r="41" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A41" s="8" t="s">
         <v>73</v>
       </c>
@@ -22359,9 +22077,7 @@
       <c r="BI41" s="13">
         <v>195845</v>
       </c>
-      <c r="BJ41">
-        <v>8.82</v>
-      </c>
+      <c r="BJ41" s="11"/>
       <c r="BK41" s="11"/>
       <c r="BL41" s="11"/>
       <c r="BM41" s="11"/>
@@ -22400,9 +22116,8 @@
       <c r="CT41" s="11"/>
       <c r="CU41" s="11"/>
       <c r="CV41" s="11"/>
-      <c r="CW41" s="11"/>
     </row>
-    <row r="42" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A42" s="8" t="s">
         <v>74</v>
       </c>
@@ -22586,9 +22301,7 @@
       <c r="BI42" s="13">
         <v>601459</v>
       </c>
-      <c r="BJ42">
-        <v>9.6999999999999993</v>
-      </c>
+      <c r="BJ42" s="11"/>
       <c r="BK42" s="11"/>
       <c r="BL42" s="11"/>
       <c r="BM42" s="11"/>
@@ -22627,9 +22340,8 @@
       <c r="CT42" s="11"/>
       <c r="CU42" s="11"/>
       <c r="CV42" s="11"/>
-      <c r="CW42" s="11"/>
     </row>
-    <row r="43" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A43" s="8" t="s">
         <v>75</v>
       </c>
@@ -22813,9 +22525,7 @@
       <c r="BI43" s="13">
         <v>48052</v>
       </c>
-      <c r="BJ43">
-        <v>18.54</v>
-      </c>
+      <c r="BJ43" s="11"/>
       <c r="BK43" s="11"/>
       <c r="BL43" s="11"/>
       <c r="BM43" s="11"/>
@@ -22854,9 +22564,8 @@
       <c r="CT43" s="11"/>
       <c r="CU43" s="11"/>
       <c r="CV43" s="11"/>
-      <c r="CW43" s="11"/>
     </row>
-    <row r="44" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A44" s="8" t="s">
         <v>76</v>
       </c>
@@ -23040,9 +22749,7 @@
       <c r="BI44" s="13">
         <v>271618</v>
       </c>
-      <c r="BJ44">
-        <v>9.9</v>
-      </c>
+      <c r="BJ44" s="11"/>
       <c r="BK44" s="11"/>
       <c r="BL44" s="11"/>
       <c r="BM44" s="11"/>
@@ -23081,9 +22788,8 @@
       <c r="CT44" s="11"/>
       <c r="CU44" s="11"/>
       <c r="CV44" s="11"/>
-      <c r="CW44" s="11"/>
     </row>
-    <row r="45" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A45" s="8" t="s">
         <v>77</v>
       </c>
@@ -23267,9 +22973,7 @@
       <c r="BI45" s="13">
         <v>65449</v>
       </c>
-      <c r="BJ45">
-        <v>10.06</v>
-      </c>
+      <c r="BJ45" s="11"/>
       <c r="BK45" s="11"/>
       <c r="BL45" s="11"/>
       <c r="BM45" s="11"/>
@@ -23308,9 +23012,8 @@
       <c r="CT45" s="11"/>
       <c r="CU45" s="11"/>
       <c r="CV45" s="11"/>
-      <c r="CW45" s="11"/>
     </row>
-    <row r="46" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A46" s="8" t="s">
         <v>78</v>
       </c>
@@ -23494,9 +23197,7 @@
       <c r="BI46" s="13">
         <v>447089</v>
       </c>
-      <c r="BJ46">
-        <v>9.52</v>
-      </c>
+      <c r="BJ46" s="11"/>
       <c r="BK46" s="11"/>
       <c r="BL46" s="11"/>
       <c r="BM46" s="11"/>
@@ -23535,9 +23236,8 @@
       <c r="CT46" s="11"/>
       <c r="CU46" s="11"/>
       <c r="CV46" s="11"/>
-      <c r="CW46" s="11"/>
     </row>
-    <row r="47" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A47" s="8" t="s">
         <v>79</v>
       </c>
@@ -23721,9 +23421,7 @@
       <c r="BI47" s="13">
         <v>1626670</v>
       </c>
-      <c r="BJ47">
-        <v>8.36</v>
-      </c>
+      <c r="BJ47" s="11"/>
       <c r="BK47" s="11"/>
       <c r="BL47" s="11"/>
       <c r="BM47" s="11"/>
@@ -23762,9 +23460,8 @@
       <c r="CT47" s="11"/>
       <c r="CU47" s="11"/>
       <c r="CV47" s="11"/>
-      <c r="CW47" s="11"/>
     </row>
-    <row r="48" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A48" s="8" t="s">
         <v>80</v>
       </c>
@@ -23948,9 +23645,7 @@
       <c r="BI48" s="13">
         <v>176564</v>
       </c>
-      <c r="BJ48">
-        <v>8.27</v>
-      </c>
+      <c r="BJ48" s="11"/>
       <c r="BK48" s="11"/>
       <c r="BL48" s="11"/>
       <c r="BM48" s="11"/>
@@ -23989,9 +23684,8 @@
       <c r="CT48" s="11"/>
       <c r="CU48" s="11"/>
       <c r="CV48" s="11"/>
-      <c r="CW48" s="11"/>
     </row>
-    <row r="49" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A49" s="8" t="s">
         <v>81</v>
       </c>
@@ -24175,9 +23869,7 @@
       <c r="BI49" s="13">
         <v>631160</v>
       </c>
-      <c r="BJ49">
-        <v>16.329999999999998</v>
-      </c>
+      <c r="BJ49" s="11"/>
       <c r="BK49" s="11"/>
       <c r="BL49" s="11"/>
       <c r="BM49" s="11"/>
@@ -24216,9 +23908,8 @@
       <c r="CT49" s="11"/>
       <c r="CU49" s="11"/>
       <c r="CV49" s="11"/>
-      <c r="CW49" s="11"/>
     </row>
-    <row r="50" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A50" s="8" t="s">
         <v>82</v>
       </c>
@@ -24402,9 +24093,7 @@
       <c r="BI50" s="13">
         <v>25937</v>
       </c>
-      <c r="BJ50">
-        <v>9.16</v>
-      </c>
+      <c r="BJ50" s="11"/>
       <c r="BK50" s="11"/>
       <c r="BL50" s="11"/>
       <c r="BM50" s="11"/>
@@ -24443,9 +24132,8 @@
       <c r="CT50" s="11"/>
       <c r="CU50" s="11"/>
       <c r="CV50" s="11"/>
-      <c r="CW50" s="11"/>
     </row>
-    <row r="51" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A51" s="8" t="s">
         <v>83</v>
       </c>
@@ -24629,9 +24317,7 @@
       <c r="BI51" s="13">
         <v>370191</v>
       </c>
-      <c r="BJ51">
-        <v>8.33</v>
-      </c>
+      <c r="BJ51" s="11"/>
       <c r="BK51" s="11"/>
       <c r="BL51" s="11"/>
       <c r="BM51" s="11"/>
@@ -24670,9 +24356,8 @@
       <c r="CT51" s="11"/>
       <c r="CU51" s="11"/>
       <c r="CV51" s="11"/>
-      <c r="CW51" s="11"/>
     </row>
-    <row r="52" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A52" s="8" t="s">
         <v>84</v>
       </c>
@@ -24856,9 +24541,7 @@
       <c r="BI52" s="13">
         <v>362969</v>
       </c>
-      <c r="BJ52">
-        <v>10.82</v>
-      </c>
+      <c r="BJ52" s="11"/>
       <c r="BK52" s="11"/>
       <c r="BL52" s="11"/>
       <c r="BM52" s="11"/>
@@ -24897,9 +24580,8 @@
       <c r="CT52" s="11"/>
       <c r="CU52" s="11"/>
       <c r="CV52" s="11"/>
-      <c r="CW52" s="11"/>
     </row>
-    <row r="53" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A53" s="8" t="s">
         <v>85</v>
       </c>
@@ -25083,9 +24765,7 @@
       <c r="BI53" s="13">
         <v>111765</v>
       </c>
-      <c r="BJ53">
-        <v>8.75</v>
-      </c>
+      <c r="BJ53" s="11"/>
       <c r="BK53" s="11"/>
       <c r="BL53" s="11"/>
       <c r="BM53" s="11"/>
@@ -25124,9 +24804,8 @@
       <c r="CT53" s="11"/>
       <c r="CU53" s="11"/>
       <c r="CV53" s="11"/>
-      <c r="CW53" s="11"/>
     </row>
-    <row r="54" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A54" s="8" t="s">
         <v>86</v>
       </c>
@@ -25310,9 +24989,7 @@
       <c r="BI54" s="13">
         <v>57342</v>
       </c>
-      <c r="BJ54">
-        <v>8.27</v>
-      </c>
+      <c r="BJ54" s="11"/>
       <c r="BK54" s="11"/>
       <c r="BL54" s="11"/>
       <c r="BM54" s="11"/>
@@ -25351,9 +25028,8 @@
       <c r="CT54" s="11"/>
       <c r="CU54" s="11"/>
       <c r="CV54" s="11"/>
-      <c r="CW54" s="11"/>
     </row>
-    <row r="55" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A55" s="8" t="s">
         <v>87</v>
       </c>
@@ -25537,9 +25213,7 @@
       <c r="BI55" s="13">
         <v>17981489</v>
       </c>
-      <c r="BJ55">
-        <v>10.59</v>
-      </c>
+      <c r="BJ55" s="11"/>
       <c r="BK55" s="11"/>
       <c r="BL55" s="11"/>
       <c r="BM55" s="11"/>
@@ -25578,7 +25252,6 @@
       <c r="CT55" s="11"/>
       <c r="CU55" s="11"/>
       <c r="CV55" s="11"/>
-      <c r="CW55" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25597,24 +25270,24 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="6.125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="10.125" style="10" customWidth="1"/>
-    <col min="3" max="6" width="10.125" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="61" width="11.125" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="10" customWidth="1"/>
+    <col min="3" max="6" width="10.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="61" width="11.140625" style="10" bestFit="1" customWidth="1"/>
     <col min="62" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:101" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:101" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A1" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:101" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:101" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A2" s="8"/>
     </row>
-    <row r="3" spans="1:101" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:101" s="8" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
@@ -25799,7 +25472,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="4" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A4" s="8" t="s">
         <v>36</v>
       </c>
@@ -26024,7 +25697,7 @@
       <c r="CV4" s="11"/>
       <c r="CW4" s="11"/>
     </row>
-    <row r="5" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A5" s="8" t="s">
         <v>37</v>
       </c>
@@ -26249,7 +25922,7 @@
       <c r="CV5" s="11"/>
       <c r="CW5" s="11"/>
     </row>
-    <row r="6" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A6" s="8" t="s">
         <v>38</v>
       </c>
@@ -26474,7 +26147,7 @@
       <c r="CV6" s="11"/>
       <c r="CW6" s="11"/>
     </row>
-    <row r="7" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A7" s="8" t="s">
         <v>39</v>
       </c>
@@ -26699,7 +26372,7 @@
       <c r="CV7" s="11"/>
       <c r="CW7" s="11"/>
     </row>
-    <row r="8" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A8" s="8" t="s">
         <v>40</v>
       </c>
@@ -26924,7 +26597,7 @@
       <c r="CV8" s="11"/>
       <c r="CW8" s="11"/>
     </row>
-    <row r="9" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A9" s="8" t="s">
         <v>41</v>
       </c>
@@ -27149,7 +26822,7 @@
       <c r="CV9" s="11"/>
       <c r="CW9" s="11"/>
     </row>
-    <row r="10" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A10" s="8" t="s">
         <v>42</v>
       </c>
@@ -27374,7 +27047,7 @@
       <c r="CV10" s="11"/>
       <c r="CW10" s="11"/>
     </row>
-    <row r="11" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A11" s="8" t="s">
         <v>43</v>
       </c>
@@ -27599,7 +27272,7 @@
       <c r="CV11" s="11"/>
       <c r="CW11" s="11"/>
     </row>
-    <row r="12" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A12" s="8" t="s">
         <v>44</v>
       </c>
@@ -27824,7 +27497,7 @@
       <c r="CV12" s="11"/>
       <c r="CW12" s="11"/>
     </row>
-    <row r="13" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A13" s="8" t="s">
         <v>45</v>
       </c>
@@ -28049,7 +27722,7 @@
       <c r="CV13" s="11"/>
       <c r="CW13" s="11"/>
     </row>
-    <row r="14" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A14" s="8" t="s">
         <v>46</v>
       </c>
@@ -28274,7 +27947,7 @@
       <c r="CV14" s="11"/>
       <c r="CW14" s="11"/>
     </row>
-    <row r="15" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A15" s="8" t="s">
         <v>47</v>
       </c>
@@ -28499,7 +28172,7 @@
       <c r="CV15" s="11"/>
       <c r="CW15" s="11"/>
     </row>
-    <row r="16" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A16" s="8" t="s">
         <v>48</v>
       </c>
@@ -28724,7 +28397,7 @@
       <c r="CV16" s="11"/>
       <c r="CW16" s="11"/>
     </row>
-    <row r="17" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A17" s="8" t="s">
         <v>49</v>
       </c>
@@ -28949,7 +28622,7 @@
       <c r="CV17" s="11"/>
       <c r="CW17" s="11"/>
     </row>
-    <row r="18" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A18" s="8" t="s">
         <v>50</v>
       </c>
@@ -29174,7 +28847,7 @@
       <c r="CV18" s="11"/>
       <c r="CW18" s="11"/>
     </row>
-    <row r="19" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A19" s="8" t="s">
         <v>51</v>
       </c>
@@ -29399,7 +29072,7 @@
       <c r="CV19" s="11"/>
       <c r="CW19" s="11"/>
     </row>
-    <row r="20" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A20" s="8" t="s">
         <v>52</v>
       </c>
@@ -29624,7 +29297,7 @@
       <c r="CV20" s="11"/>
       <c r="CW20" s="11"/>
     </row>
-    <row r="21" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A21" s="8" t="s">
         <v>53</v>
       </c>
@@ -29849,7 +29522,7 @@
       <c r="CV21" s="11"/>
       <c r="CW21" s="11"/>
     </row>
-    <row r="22" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A22" s="8" t="s">
         <v>54</v>
       </c>
@@ -30074,7 +29747,7 @@
       <c r="CV22" s="11"/>
       <c r="CW22" s="11"/>
     </row>
-    <row r="23" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A23" s="8" t="s">
         <v>55</v>
       </c>
@@ -30299,7 +29972,7 @@
       <c r="CV23" s="11"/>
       <c r="CW23" s="11"/>
     </row>
-    <row r="24" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A24" s="8" t="s">
         <v>56</v>
       </c>
@@ -30524,7 +30197,7 @@
       <c r="CV24" s="11"/>
       <c r="CW24" s="11"/>
     </row>
-    <row r="25" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A25" s="8" t="s">
         <v>57</v>
       </c>
@@ -30749,7 +30422,7 @@
       <c r="CV25" s="11"/>
       <c r="CW25" s="11"/>
     </row>
-    <row r="26" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A26" s="8" t="s">
         <v>58</v>
       </c>
@@ -30974,7 +30647,7 @@
       <c r="CV26" s="11"/>
       <c r="CW26" s="11"/>
     </row>
-    <row r="27" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A27" s="8" t="s">
         <v>59</v>
       </c>
@@ -31199,7 +30872,7 @@
       <c r="CV27" s="11"/>
       <c r="CW27" s="11"/>
     </row>
-    <row r="28" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A28" s="8" t="s">
         <v>60</v>
       </c>
@@ -31424,7 +31097,7 @@
       <c r="CV28" s="11"/>
       <c r="CW28" s="11"/>
     </row>
-    <row r="29" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A29" s="8" t="s">
         <v>61</v>
       </c>
@@ -31649,7 +31322,7 @@
       <c r="CV29" s="11"/>
       <c r="CW29" s="11"/>
     </row>
-    <row r="30" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A30" s="8" t="s">
         <v>62</v>
       </c>
@@ -31874,7 +31547,7 @@
       <c r="CV30" s="11"/>
       <c r="CW30" s="11"/>
     </row>
-    <row r="31" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A31" s="8" t="s">
         <v>63</v>
       </c>
@@ -32099,7 +31772,7 @@
       <c r="CV31" s="11"/>
       <c r="CW31" s="11"/>
     </row>
-    <row r="32" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A32" s="8" t="s">
         <v>64</v>
       </c>
@@ -32324,7 +31997,7 @@
       <c r="CV32" s="11"/>
       <c r="CW32" s="11"/>
     </row>
-    <row r="33" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A33" s="8" t="s">
         <v>65</v>
       </c>
@@ -32549,7 +32222,7 @@
       <c r="CV33" s="11"/>
       <c r="CW33" s="11"/>
     </row>
-    <row r="34" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A34" s="8" t="s">
         <v>66</v>
       </c>
@@ -32774,7 +32447,7 @@
       <c r="CV34" s="11"/>
       <c r="CW34" s="11"/>
     </row>
-    <row r="35" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A35" s="8" t="s">
         <v>67</v>
       </c>
@@ -32999,7 +32672,7 @@
       <c r="CV35" s="11"/>
       <c r="CW35" s="11"/>
     </row>
-    <row r="36" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A36" s="8" t="s">
         <v>68</v>
       </c>
@@ -33224,7 +32897,7 @@
       <c r="CV36" s="11"/>
       <c r="CW36" s="11"/>
     </row>
-    <row r="37" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A37" s="8" t="s">
         <v>69</v>
       </c>
@@ -33449,7 +33122,7 @@
       <c r="CV37" s="11"/>
       <c r="CW37" s="11"/>
     </row>
-    <row r="38" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A38" s="8" t="s">
         <v>70</v>
       </c>
@@ -33674,7 +33347,7 @@
       <c r="CV38" s="11"/>
       <c r="CW38" s="11"/>
     </row>
-    <row r="39" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A39" s="8" t="s">
         <v>71</v>
       </c>
@@ -33899,7 +33572,7 @@
       <c r="CV39" s="11"/>
       <c r="CW39" s="11"/>
     </row>
-    <row r="40" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A40" s="8" t="s">
         <v>72</v>
       </c>
@@ -34124,7 +33797,7 @@
       <c r="CV40" s="11"/>
       <c r="CW40" s="11"/>
     </row>
-    <row r="41" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A41" s="8" t="s">
         <v>73</v>
       </c>
@@ -34349,7 +34022,7 @@
       <c r="CV41" s="11"/>
       <c r="CW41" s="11"/>
     </row>
-    <row r="42" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A42" s="8" t="s">
         <v>74</v>
       </c>
@@ -34574,7 +34247,7 @@
       <c r="CV42" s="11"/>
       <c r="CW42" s="11"/>
     </row>
-    <row r="43" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A43" s="8" t="s">
         <v>75</v>
       </c>
@@ -34799,7 +34472,7 @@
       <c r="CV43" s="11"/>
       <c r="CW43" s="11"/>
     </row>
-    <row r="44" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A44" s="8" t="s">
         <v>76</v>
       </c>
@@ -35024,7 +34697,7 @@
       <c r="CV44" s="11"/>
       <c r="CW44" s="11"/>
     </row>
-    <row r="45" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A45" s="8" t="s">
         <v>77</v>
       </c>
@@ -35249,7 +34922,7 @@
       <c r="CV45" s="11"/>
       <c r="CW45" s="11"/>
     </row>
-    <row r="46" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A46" s="8" t="s">
         <v>78</v>
       </c>
@@ -35474,7 +35147,7 @@
       <c r="CV46" s="11"/>
       <c r="CW46" s="11"/>
     </row>
-    <row r="47" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A47" s="8" t="s">
         <v>79</v>
       </c>
@@ -35699,7 +35372,7 @@
       <c r="CV47" s="11"/>
       <c r="CW47" s="11"/>
     </row>
-    <row r="48" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A48" s="8" t="s">
         <v>80</v>
       </c>
@@ -35924,7 +35597,7 @@
       <c r="CV48" s="11"/>
       <c r="CW48" s="11"/>
     </row>
-    <row r="49" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A49" s="8" t="s">
         <v>81</v>
       </c>
@@ -36149,7 +35822,7 @@
       <c r="CV49" s="11"/>
       <c r="CW49" s="11"/>
     </row>
-    <row r="50" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A50" s="8" t="s">
         <v>82</v>
       </c>
@@ -36374,7 +36047,7 @@
       <c r="CV50" s="11"/>
       <c r="CW50" s="11"/>
     </row>
-    <row r="51" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A51" s="8" t="s">
         <v>83</v>
       </c>
@@ -36599,7 +36272,7 @@
       <c r="CV51" s="11"/>
       <c r="CW51" s="11"/>
     </row>
-    <row r="52" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A52" s="8" t="s">
         <v>84</v>
       </c>
@@ -36824,7 +36497,7 @@
       <c r="CV52" s="11"/>
       <c r="CW52" s="11"/>
     </row>
-    <row r="53" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A53" s="8" t="s">
         <v>85</v>
       </c>
@@ -37049,7 +36722,7 @@
       <c r="CV53" s="11"/>
       <c r="CW53" s="11"/>
     </row>
-    <row r="54" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A54" s="8" t="s">
         <v>86</v>
       </c>
@@ -37274,7 +36947,7 @@
       <c r="CV54" s="11"/>
       <c r="CW54" s="11"/>
     </row>
-    <row r="55" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A55" s="8" t="s">
         <v>87</v>
       </c>
@@ -37515,24 +37188,24 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="6.125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="10.125" style="10" customWidth="1"/>
-    <col min="3" max="6" width="10.125" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="61" width="11.125" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="10" customWidth="1"/>
+    <col min="3" max="6" width="10.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="61" width="11.140625" style="10" bestFit="1" customWidth="1"/>
     <col min="62" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:101" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:101" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A1" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:101" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:101" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A2" s="8"/>
     </row>
-    <row r="3" spans="1:101" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:101" s="8" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
@@ -37717,7 +37390,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="4" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A4" s="8" t="s">
         <v>36</v>
       </c>
@@ -37942,7 +37615,7 @@
       <c r="CV4" s="11"/>
       <c r="CW4" s="11"/>
     </row>
-    <row r="5" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A5" s="8" t="s">
         <v>37</v>
       </c>
@@ -38167,7 +37840,7 @@
       <c r="CV5" s="11"/>
       <c r="CW5" s="11"/>
     </row>
-    <row r="6" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A6" s="8" t="s">
         <v>38</v>
       </c>
@@ -38392,7 +38065,7 @@
       <c r="CV6" s="11"/>
       <c r="CW6" s="11"/>
     </row>
-    <row r="7" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A7" s="8" t="s">
         <v>39</v>
       </c>
@@ -38617,7 +38290,7 @@
       <c r="CV7" s="11"/>
       <c r="CW7" s="11"/>
     </row>
-    <row r="8" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A8" s="8" t="s">
         <v>40</v>
       </c>
@@ -38842,7 +38515,7 @@
       <c r="CV8" s="11"/>
       <c r="CW8" s="11"/>
     </row>
-    <row r="9" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A9" s="8" t="s">
         <v>41</v>
       </c>
@@ -39067,7 +38740,7 @@
       <c r="CV9" s="11"/>
       <c r="CW9" s="11"/>
     </row>
-    <row r="10" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A10" s="8" t="s">
         <v>42</v>
       </c>
@@ -39292,7 +38965,7 @@
       <c r="CV10" s="11"/>
       <c r="CW10" s="11"/>
     </row>
-    <row r="11" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A11" s="8" t="s">
         <v>43</v>
       </c>
@@ -39517,7 +39190,7 @@
       <c r="CV11" s="11"/>
       <c r="CW11" s="11"/>
     </row>
-    <row r="12" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A12" s="8" t="s">
         <v>44</v>
       </c>
@@ -39742,7 +39415,7 @@
       <c r="CV12" s="11"/>
       <c r="CW12" s="11"/>
     </row>
-    <row r="13" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A13" s="8" t="s">
         <v>45</v>
       </c>
@@ -39967,7 +39640,7 @@
       <c r="CV13" s="11"/>
       <c r="CW13" s="11"/>
     </row>
-    <row r="14" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A14" s="8" t="s">
         <v>46</v>
       </c>
@@ -40192,7 +39865,7 @@
       <c r="CV14" s="11"/>
       <c r="CW14" s="11"/>
     </row>
-    <row r="15" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A15" s="8" t="s">
         <v>47</v>
       </c>
@@ -40417,7 +40090,7 @@
       <c r="CV15" s="11"/>
       <c r="CW15" s="11"/>
     </row>
-    <row r="16" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A16" s="8" t="s">
         <v>48</v>
       </c>
@@ -40642,7 +40315,7 @@
       <c r="CV16" s="11"/>
       <c r="CW16" s="11"/>
     </row>
-    <row r="17" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A17" s="8" t="s">
         <v>49</v>
       </c>
@@ -40867,7 +40540,7 @@
       <c r="CV17" s="11"/>
       <c r="CW17" s="11"/>
     </row>
-    <row r="18" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A18" s="8" t="s">
         <v>50</v>
       </c>
@@ -41092,7 +40765,7 @@
       <c r="CV18" s="11"/>
       <c r="CW18" s="11"/>
     </row>
-    <row r="19" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A19" s="8" t="s">
         <v>51</v>
       </c>
@@ -41317,7 +40990,7 @@
       <c r="CV19" s="11"/>
       <c r="CW19" s="11"/>
     </row>
-    <row r="20" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A20" s="8" t="s">
         <v>52</v>
       </c>
@@ -41542,7 +41215,7 @@
       <c r="CV20" s="11"/>
       <c r="CW20" s="11"/>
     </row>
-    <row r="21" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A21" s="8" t="s">
         <v>53</v>
       </c>
@@ -41767,7 +41440,7 @@
       <c r="CV21" s="11"/>
       <c r="CW21" s="11"/>
     </row>
-    <row r="22" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A22" s="8" t="s">
         <v>54</v>
       </c>
@@ -41992,7 +41665,7 @@
       <c r="CV22" s="11"/>
       <c r="CW22" s="11"/>
     </row>
-    <row r="23" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A23" s="8" t="s">
         <v>55</v>
       </c>
@@ -42217,7 +41890,7 @@
       <c r="CV23" s="11"/>
       <c r="CW23" s="11"/>
     </row>
-    <row r="24" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A24" s="8" t="s">
         <v>56</v>
       </c>
@@ -42442,7 +42115,7 @@
       <c r="CV24" s="11"/>
       <c r="CW24" s="11"/>
     </row>
-    <row r="25" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A25" s="8" t="s">
         <v>57</v>
       </c>
@@ -42667,7 +42340,7 @@
       <c r="CV25" s="11"/>
       <c r="CW25" s="11"/>
     </row>
-    <row r="26" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A26" s="8" t="s">
         <v>58</v>
       </c>
@@ -42892,7 +42565,7 @@
       <c r="CV26" s="11"/>
       <c r="CW26" s="11"/>
     </row>
-    <row r="27" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A27" s="8" t="s">
         <v>59</v>
       </c>
@@ -43117,7 +42790,7 @@
       <c r="CV27" s="11"/>
       <c r="CW27" s="11"/>
     </row>
-    <row r="28" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A28" s="8" t="s">
         <v>60</v>
       </c>
@@ -43342,7 +43015,7 @@
       <c r="CV28" s="11"/>
       <c r="CW28" s="11"/>
     </row>
-    <row r="29" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A29" s="8" t="s">
         <v>61</v>
       </c>
@@ -43567,7 +43240,7 @@
       <c r="CV29" s="11"/>
       <c r="CW29" s="11"/>
     </row>
-    <row r="30" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A30" s="8" t="s">
         <v>62</v>
       </c>
@@ -43792,7 +43465,7 @@
       <c r="CV30" s="11"/>
       <c r="CW30" s="11"/>
     </row>
-    <row r="31" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A31" s="8" t="s">
         <v>63</v>
       </c>
@@ -44017,7 +43690,7 @@
       <c r="CV31" s="11"/>
       <c r="CW31" s="11"/>
     </row>
-    <row r="32" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A32" s="8" t="s">
         <v>64</v>
       </c>
@@ -44242,7 +43915,7 @@
       <c r="CV32" s="11"/>
       <c r="CW32" s="11"/>
     </row>
-    <row r="33" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A33" s="8" t="s">
         <v>65</v>
       </c>
@@ -44467,7 +44140,7 @@
       <c r="CV33" s="11"/>
       <c r="CW33" s="11"/>
     </row>
-    <row r="34" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A34" s="8" t="s">
         <v>66</v>
       </c>
@@ -44692,7 +44365,7 @@
       <c r="CV34" s="11"/>
       <c r="CW34" s="11"/>
     </row>
-    <row r="35" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A35" s="8" t="s">
         <v>67</v>
       </c>
@@ -44917,7 +44590,7 @@
       <c r="CV35" s="11"/>
       <c r="CW35" s="11"/>
     </row>
-    <row r="36" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A36" s="8" t="s">
         <v>68</v>
       </c>
@@ -45142,7 +44815,7 @@
       <c r="CV36" s="11"/>
       <c r="CW36" s="11"/>
     </row>
-    <row r="37" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A37" s="8" t="s">
         <v>69</v>
       </c>
@@ -45367,7 +45040,7 @@
       <c r="CV37" s="11"/>
       <c r="CW37" s="11"/>
     </row>
-    <row r="38" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A38" s="8" t="s">
         <v>70</v>
       </c>
@@ -45592,7 +45265,7 @@
       <c r="CV38" s="11"/>
       <c r="CW38" s="11"/>
     </row>
-    <row r="39" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A39" s="8" t="s">
         <v>71</v>
       </c>
@@ -45817,7 +45490,7 @@
       <c r="CV39" s="11"/>
       <c r="CW39" s="11"/>
     </row>
-    <row r="40" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A40" s="8" t="s">
         <v>72</v>
       </c>
@@ -46042,7 +45715,7 @@
       <c r="CV40" s="11"/>
       <c r="CW40" s="11"/>
     </row>
-    <row r="41" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A41" s="8" t="s">
         <v>73</v>
       </c>
@@ -46267,7 +45940,7 @@
       <c r="CV41" s="11"/>
       <c r="CW41" s="11"/>
     </row>
-    <row r="42" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A42" s="8" t="s">
         <v>74</v>
       </c>
@@ -46492,7 +46165,7 @@
       <c r="CV42" s="11"/>
       <c r="CW42" s="11"/>
     </row>
-    <row r="43" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A43" s="8" t="s">
         <v>75</v>
       </c>
@@ -46717,7 +46390,7 @@
       <c r="CV43" s="11"/>
       <c r="CW43" s="11"/>
     </row>
-    <row r="44" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A44" s="8" t="s">
         <v>76</v>
       </c>
@@ -46942,7 +46615,7 @@
       <c r="CV44" s="11"/>
       <c r="CW44" s="11"/>
     </row>
-    <row r="45" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A45" s="8" t="s">
         <v>77</v>
       </c>
@@ -47167,7 +46840,7 @@
       <c r="CV45" s="11"/>
       <c r="CW45" s="11"/>
     </row>
-    <row r="46" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A46" s="8" t="s">
         <v>78</v>
       </c>
@@ -47392,7 +47065,7 @@
       <c r="CV46" s="11"/>
       <c r="CW46" s="11"/>
     </row>
-    <row r="47" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A47" s="8" t="s">
         <v>79</v>
       </c>
@@ -47617,7 +47290,7 @@
       <c r="CV47" s="11"/>
       <c r="CW47" s="11"/>
     </row>
-    <row r="48" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A48" s="8" t="s">
         <v>80</v>
       </c>
@@ -47842,7 +47515,7 @@
       <c r="CV48" s="11"/>
       <c r="CW48" s="11"/>
     </row>
-    <row r="49" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A49" s="8" t="s">
         <v>81</v>
       </c>
@@ -48067,7 +47740,7 @@
       <c r="CV49" s="11"/>
       <c r="CW49" s="11"/>
     </row>
-    <row r="50" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A50" s="8" t="s">
         <v>82</v>
       </c>
@@ -48292,7 +47965,7 @@
       <c r="CV50" s="11"/>
       <c r="CW50" s="11"/>
     </row>
-    <row r="51" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A51" s="8" t="s">
         <v>83</v>
       </c>
@@ -48517,7 +48190,7 @@
       <c r="CV51" s="11"/>
       <c r="CW51" s="11"/>
     </row>
-    <row r="52" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A52" s="8" t="s">
         <v>84</v>
       </c>
@@ -48742,7 +48415,7 @@
       <c r="CV52" s="11"/>
       <c r="CW52" s="11"/>
     </row>
-    <row r="53" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A53" s="8" t="s">
         <v>85</v>
       </c>
@@ -48967,7 +48640,7 @@
       <c r="CV53" s="11"/>
       <c r="CW53" s="11"/>
     </row>
-    <row r="54" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A54" s="8" t="s">
         <v>86</v>
       </c>
@@ -49192,7 +48865,7 @@
       <c r="CV54" s="11"/>
       <c r="CW54" s="11"/>
     </row>
-    <row r="55" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A55" s="8" t="s">
         <v>87</v>
       </c>
@@ -49433,24 +49106,24 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="6.125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="10.125" style="10" customWidth="1"/>
-    <col min="3" max="6" width="10.125" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="61" width="11.125" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="10" customWidth="1"/>
+    <col min="3" max="6" width="10.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="61" width="11.140625" style="10" bestFit="1" customWidth="1"/>
     <col min="62" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:101" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:101" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A1" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:101" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:101" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A2" s="8"/>
     </row>
-    <row r="3" spans="1:101" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:101" s="8" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
@@ -49635,7 +49308,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="4" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A4" s="8" t="s">
         <v>36</v>
       </c>
@@ -49860,7 +49533,7 @@
       <c r="CV4" s="11"/>
       <c r="CW4" s="11"/>
     </row>
-    <row r="5" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A5" s="8" t="s">
         <v>37</v>
       </c>
@@ -50085,7 +49758,7 @@
       <c r="CV5" s="11"/>
       <c r="CW5" s="11"/>
     </row>
-    <row r="6" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A6" s="8" t="s">
         <v>38</v>
       </c>
@@ -50310,7 +49983,7 @@
       <c r="CV6" s="11"/>
       <c r="CW6" s="11"/>
     </row>
-    <row r="7" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A7" s="8" t="s">
         <v>39</v>
       </c>
@@ -50535,7 +50208,7 @@
       <c r="CV7" s="11"/>
       <c r="CW7" s="11"/>
     </row>
-    <row r="8" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A8" s="8" t="s">
         <v>40</v>
       </c>
@@ -50760,7 +50433,7 @@
       <c r="CV8" s="11"/>
       <c r="CW8" s="11"/>
     </row>
-    <row r="9" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A9" s="8" t="s">
         <v>41</v>
       </c>
@@ -50985,7 +50658,7 @@
       <c r="CV9" s="11"/>
       <c r="CW9" s="11"/>
     </row>
-    <row r="10" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A10" s="8" t="s">
         <v>42</v>
       </c>
@@ -51210,7 +50883,7 @@
       <c r="CV10" s="11"/>
       <c r="CW10" s="11"/>
     </row>
-    <row r="11" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A11" s="8" t="s">
         <v>43</v>
       </c>
@@ -51435,7 +51108,7 @@
       <c r="CV11" s="11"/>
       <c r="CW11" s="11"/>
     </row>
-    <row r="12" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A12" s="8" t="s">
         <v>44</v>
       </c>
@@ -51660,7 +51333,7 @@
       <c r="CV12" s="11"/>
       <c r="CW12" s="11"/>
     </row>
-    <row r="13" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A13" s="8" t="s">
         <v>45</v>
       </c>
@@ -51885,7 +51558,7 @@
       <c r="CV13" s="11"/>
       <c r="CW13" s="11"/>
     </row>
-    <row r="14" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A14" s="8" t="s">
         <v>46</v>
       </c>
@@ -52110,7 +51783,7 @@
       <c r="CV14" s="11"/>
       <c r="CW14" s="11"/>
     </row>
-    <row r="15" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A15" s="8" t="s">
         <v>47</v>
       </c>
@@ -52335,7 +52008,7 @@
       <c r="CV15" s="11"/>
       <c r="CW15" s="11"/>
     </row>
-    <row r="16" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A16" s="8" t="s">
         <v>48</v>
       </c>
@@ -52560,7 +52233,7 @@
       <c r="CV16" s="11"/>
       <c r="CW16" s="11"/>
     </row>
-    <row r="17" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A17" s="8" t="s">
         <v>49</v>
       </c>
@@ -52785,7 +52458,7 @@
       <c r="CV17" s="11"/>
       <c r="CW17" s="11"/>
     </row>
-    <row r="18" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A18" s="8" t="s">
         <v>50</v>
       </c>
@@ -53010,7 +52683,7 @@
       <c r="CV18" s="11"/>
       <c r="CW18" s="11"/>
     </row>
-    <row r="19" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A19" s="8" t="s">
         <v>51</v>
       </c>
@@ -53235,7 +52908,7 @@
       <c r="CV19" s="11"/>
       <c r="CW19" s="11"/>
     </row>
-    <row r="20" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A20" s="8" t="s">
         <v>52</v>
       </c>
@@ -53460,7 +53133,7 @@
       <c r="CV20" s="11"/>
       <c r="CW20" s="11"/>
     </row>
-    <row r="21" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A21" s="8" t="s">
         <v>53</v>
       </c>
@@ -53685,7 +53358,7 @@
       <c r="CV21" s="11"/>
       <c r="CW21" s="11"/>
     </row>
-    <row r="22" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A22" s="8" t="s">
         <v>54</v>
       </c>
@@ -53910,7 +53583,7 @@
       <c r="CV22" s="11"/>
       <c r="CW22" s="11"/>
     </row>
-    <row r="23" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A23" s="8" t="s">
         <v>55</v>
       </c>
@@ -54135,7 +53808,7 @@
       <c r="CV23" s="11"/>
       <c r="CW23" s="11"/>
     </row>
-    <row r="24" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A24" s="8" t="s">
         <v>56</v>
       </c>
@@ -54360,7 +54033,7 @@
       <c r="CV24" s="11"/>
       <c r="CW24" s="11"/>
     </row>
-    <row r="25" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A25" s="8" t="s">
         <v>57</v>
       </c>
@@ -54585,7 +54258,7 @@
       <c r="CV25" s="11"/>
       <c r="CW25" s="11"/>
     </row>
-    <row r="26" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A26" s="8" t="s">
         <v>58</v>
       </c>
@@ -54810,7 +54483,7 @@
       <c r="CV26" s="11"/>
       <c r="CW26" s="11"/>
     </row>
-    <row r="27" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A27" s="8" t="s">
         <v>59</v>
       </c>
@@ -55035,7 +54708,7 @@
       <c r="CV27" s="11"/>
       <c r="CW27" s="11"/>
     </row>
-    <row r="28" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A28" s="8" t="s">
         <v>60</v>
       </c>
@@ -55260,7 +54933,7 @@
       <c r="CV28" s="11"/>
       <c r="CW28" s="11"/>
     </row>
-    <row r="29" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A29" s="8" t="s">
         <v>61</v>
       </c>
@@ -55485,7 +55158,7 @@
       <c r="CV29" s="11"/>
       <c r="CW29" s="11"/>
     </row>
-    <row r="30" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A30" s="8" t="s">
         <v>62</v>
       </c>
@@ -55710,7 +55383,7 @@
       <c r="CV30" s="11"/>
       <c r="CW30" s="11"/>
     </row>
-    <row r="31" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A31" s="8" t="s">
         <v>63</v>
       </c>
@@ -55935,7 +55608,7 @@
       <c r="CV31" s="11"/>
       <c r="CW31" s="11"/>
     </row>
-    <row r="32" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A32" s="8" t="s">
         <v>64</v>
       </c>
@@ -56160,7 +55833,7 @@
       <c r="CV32" s="11"/>
       <c r="CW32" s="11"/>
     </row>
-    <row r="33" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A33" s="8" t="s">
         <v>65</v>
       </c>
@@ -56385,7 +56058,7 @@
       <c r="CV33" s="11"/>
       <c r="CW33" s="11"/>
     </row>
-    <row r="34" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A34" s="8" t="s">
         <v>66</v>
       </c>
@@ -56610,7 +56283,7 @@
       <c r="CV34" s="11"/>
       <c r="CW34" s="11"/>
     </row>
-    <row r="35" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A35" s="8" t="s">
         <v>67</v>
       </c>
@@ -56835,7 +56508,7 @@
       <c r="CV35" s="11"/>
       <c r="CW35" s="11"/>
     </row>
-    <row r="36" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A36" s="8" t="s">
         <v>68</v>
       </c>
@@ -57060,7 +56733,7 @@
       <c r="CV36" s="11"/>
       <c r="CW36" s="11"/>
     </row>
-    <row r="37" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A37" s="8" t="s">
         <v>69</v>
       </c>
@@ -57285,7 +56958,7 @@
       <c r="CV37" s="11"/>
       <c r="CW37" s="11"/>
     </row>
-    <row r="38" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A38" s="8" t="s">
         <v>70</v>
       </c>
@@ -57510,7 +57183,7 @@
       <c r="CV38" s="11"/>
       <c r="CW38" s="11"/>
     </row>
-    <row r="39" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A39" s="8" t="s">
         <v>71</v>
       </c>
@@ -57735,7 +57408,7 @@
       <c r="CV39" s="11"/>
       <c r="CW39" s="11"/>
     </row>
-    <row r="40" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A40" s="8" t="s">
         <v>72</v>
       </c>
@@ -57960,7 +57633,7 @@
       <c r="CV40" s="11"/>
       <c r="CW40" s="11"/>
     </row>
-    <row r="41" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A41" s="8" t="s">
         <v>73</v>
       </c>
@@ -58185,7 +57858,7 @@
       <c r="CV41" s="11"/>
       <c r="CW41" s="11"/>
     </row>
-    <row r="42" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A42" s="8" t="s">
         <v>74</v>
       </c>
@@ -58410,7 +58083,7 @@
       <c r="CV42" s="11"/>
       <c r="CW42" s="11"/>
     </row>
-    <row r="43" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A43" s="8" t="s">
         <v>75</v>
       </c>
@@ -58635,7 +58308,7 @@
       <c r="CV43" s="11"/>
       <c r="CW43" s="11"/>
     </row>
-    <row r="44" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A44" s="8" t="s">
         <v>76</v>
       </c>
@@ -58860,7 +58533,7 @@
       <c r="CV44" s="11"/>
       <c r="CW44" s="11"/>
     </row>
-    <row r="45" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A45" s="8" t="s">
         <v>77</v>
       </c>
@@ -59085,7 +58758,7 @@
       <c r="CV45" s="11"/>
       <c r="CW45" s="11"/>
     </row>
-    <row r="46" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A46" s="8" t="s">
         <v>78</v>
       </c>
@@ -59310,7 +58983,7 @@
       <c r="CV46" s="11"/>
       <c r="CW46" s="11"/>
     </row>
-    <row r="47" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A47" s="8" t="s">
         <v>79</v>
       </c>
@@ -59535,7 +59208,7 @@
       <c r="CV47" s="11"/>
       <c r="CW47" s="11"/>
     </row>
-    <row r="48" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A48" s="8" t="s">
         <v>80</v>
       </c>
@@ -59760,7 +59433,7 @@
       <c r="CV48" s="11"/>
       <c r="CW48" s="11"/>
     </row>
-    <row r="49" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A49" s="8" t="s">
         <v>81</v>
       </c>
@@ -59985,7 +59658,7 @@
       <c r="CV49" s="11"/>
       <c r="CW49" s="11"/>
     </row>
-    <row r="50" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A50" s="8" t="s">
         <v>82</v>
       </c>
@@ -60210,7 +59883,7 @@
       <c r="CV50" s="11"/>
       <c r="CW50" s="11"/>
     </row>
-    <row r="51" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A51" s="8" t="s">
         <v>83</v>
       </c>
@@ -60435,7 +60108,7 @@
       <c r="CV51" s="11"/>
       <c r="CW51" s="11"/>
     </row>
-    <row r="52" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A52" s="8" t="s">
         <v>84</v>
       </c>
@@ -60660,7 +60333,7 @@
       <c r="CV52" s="11"/>
       <c r="CW52" s="11"/>
     </row>
-    <row r="53" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A53" s="8" t="s">
         <v>85</v>
       </c>
@@ -60885,7 +60558,7 @@
       <c r="CV53" s="11"/>
       <c r="CW53" s="11"/>
     </row>
-    <row r="54" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A54" s="8" t="s">
         <v>86</v>
       </c>
@@ -61110,7 +60783,7 @@
       <c r="CV54" s="11"/>
       <c r="CW54" s="11"/>
     </row>
-    <row r="55" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:101" x14ac:dyDescent="0.5">
       <c r="A55" s="8" t="s">
         <v>87</v>
       </c>

--- a/use_tot_sector.xlsx
+++ b/use_tot_sector.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UMD\2022 Spring\INST490\INST490-Capstone-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C99FB14-C77B-42FC-9319-C43FE3E09C56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B490FC-91F3-4F7F-888F-294C9D27E207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2622" yWindow="2226" windowWidth="17280" windowHeight="8904" tabRatio="657" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="564" yWindow="1938" windowWidth="17280" windowHeight="8904" tabRatio="657" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="7" r:id="rId1"/>
